--- a/Bases de Datos/data_final.xlsx
+++ b/Bases de Datos/data_final.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -35,516 +35,774 @@
     <t xml:space="preserve">restricción2019</t>
   </si>
   <si>
+    <t xml:space="preserve">ISO</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALB</t>
   </si>
   <si>
     <t xml:space="preserve">Albania</t>
   </si>
   <si>
+    <t xml:space="preserve">AL</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARG</t>
   </si>
   <si>
     <t xml:space="preserve">Argentina</t>
   </si>
   <si>
+    <t xml:space="preserve">AR</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARM</t>
   </si>
   <si>
     <t xml:space="preserve">Armenia</t>
   </si>
   <si>
+    <t xml:space="preserve">AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">AUS</t>
   </si>
   <si>
     <t xml:space="preserve">Australia</t>
   </si>
   <si>
+    <t xml:space="preserve">AU</t>
+  </si>
+  <si>
     <t xml:space="preserve">AUT</t>
   </si>
   <si>
     <t xml:space="preserve">Austria</t>
   </si>
   <si>
+    <t xml:space="preserve">AT</t>
+  </si>
+  <si>
     <t xml:space="preserve">AZE</t>
   </si>
   <si>
     <t xml:space="preserve">Azerbaiyán</t>
   </si>
   <si>
+    <t xml:space="preserve">AZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">BEL</t>
   </si>
   <si>
     <t xml:space="preserve">Bélgica</t>
   </si>
   <si>
+    <t xml:space="preserve">BE</t>
+  </si>
+  <si>
     <t xml:space="preserve">BEN</t>
   </si>
   <si>
     <t xml:space="preserve">Benin</t>
   </si>
   <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
     <t xml:space="preserve">BFA</t>
   </si>
   <si>
     <t xml:space="preserve">Burkina Faso</t>
   </si>
   <si>
+    <t xml:space="preserve">BF</t>
+  </si>
+  <si>
     <t xml:space="preserve">BGD</t>
   </si>
   <si>
     <t xml:space="preserve">Bangladesh</t>
   </si>
   <si>
+    <t xml:space="preserve">BD</t>
+  </si>
+  <si>
     <t xml:space="preserve">BGR</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria</t>
   </si>
   <si>
+    <t xml:space="preserve">BG</t>
+  </si>
+  <si>
     <t xml:space="preserve">BIH</t>
   </si>
   <si>
     <t xml:space="preserve">Bosnia y Herzegovina</t>
   </si>
   <si>
+    <t xml:space="preserve">BA</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOL</t>
   </si>
   <si>
     <t xml:space="preserve">Bolivia</t>
   </si>
   <si>
+    <t xml:space="preserve">BO</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRA</t>
   </si>
   <si>
     <t xml:space="preserve">Brasil</t>
   </si>
   <si>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
     <t xml:space="preserve">BWA</t>
   </si>
   <si>
     <t xml:space="preserve">Botswana</t>
   </si>
   <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAF</t>
   </si>
   <si>
     <t xml:space="preserve">República Centroafricana</t>
   </si>
   <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAN</t>
   </si>
   <si>
     <t xml:space="preserve">Canadá</t>
   </si>
   <si>
+    <t xml:space="preserve">CA</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHE</t>
   </si>
   <si>
     <t xml:space="preserve">Suiza</t>
   </si>
   <si>
+    <t xml:space="preserve">CH</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHL</t>
   </si>
   <si>
     <t xml:space="preserve">Chile</t>
   </si>
   <si>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
     <t xml:space="preserve">CIV</t>
   </si>
   <si>
     <t xml:space="preserve">Côte d'Ivoire</t>
   </si>
   <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
     <t xml:space="preserve">CMR</t>
   </si>
   <si>
     <t xml:space="preserve">Camerún</t>
   </si>
   <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
     <t xml:space="preserve">COD</t>
   </si>
   <si>
     <t xml:space="preserve">Congo, República Democrática del</t>
   </si>
   <si>
+    <t xml:space="preserve">CD</t>
+  </si>
+  <si>
     <t xml:space="preserve">COG</t>
   </si>
   <si>
     <t xml:space="preserve">Congo, República del</t>
   </si>
   <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
     <t xml:space="preserve">COL</t>
   </si>
   <si>
     <t xml:space="preserve">Colombia</t>
   </si>
   <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
     <t xml:space="preserve">CRI</t>
   </si>
   <si>
     <t xml:space="preserve">Costa Rica</t>
   </si>
   <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
     <t xml:space="preserve">CYP</t>
   </si>
   <si>
     <t xml:space="preserve">Chipre</t>
   </si>
   <si>
+    <t xml:space="preserve">CY</t>
+  </si>
+  <si>
     <t xml:space="preserve">CZE</t>
   </si>
   <si>
     <t xml:space="preserve">República Checa</t>
   </si>
   <si>
+    <t xml:space="preserve">CZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">DEU</t>
   </si>
   <si>
     <t xml:space="preserve">Alemania</t>
   </si>
   <si>
+    <t xml:space="preserve">DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">DNK</t>
   </si>
   <si>
     <t xml:space="preserve">Dinamarca</t>
   </si>
   <si>
+    <t xml:space="preserve">DK</t>
+  </si>
+  <si>
     <t xml:space="preserve">DOM</t>
   </si>
   <si>
     <t xml:space="preserve">República Dominicana</t>
   </si>
   <si>
+    <t xml:space="preserve">DO</t>
+  </si>
+  <si>
     <t xml:space="preserve">DZA</t>
   </si>
   <si>
     <t xml:space="preserve">Argelia</t>
   </si>
   <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ECU</t>
   </si>
   <si>
     <t xml:space="preserve">Ecuador</t>
   </si>
   <si>
+    <t xml:space="preserve">EC</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESP</t>
   </si>
   <si>
     <t xml:space="preserve">España</t>
   </si>
   <si>
+    <t xml:space="preserve">ES</t>
+  </si>
+  <si>
     <t xml:space="preserve">EST</t>
   </si>
   <si>
     <t xml:space="preserve">Estonia</t>
   </si>
   <si>
+    <t xml:space="preserve">EE</t>
+  </si>
+  <si>
     <t xml:space="preserve">ETH</t>
   </si>
   <si>
     <t xml:space="preserve">Etiopía</t>
   </si>
   <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
     <t xml:space="preserve">FIN</t>
   </si>
   <si>
     <t xml:space="preserve">Finlandia</t>
   </si>
   <si>
+    <t xml:space="preserve">FI</t>
+  </si>
+  <si>
     <t xml:space="preserve">FRA</t>
   </si>
   <si>
     <t xml:space="preserve">Francia</t>
   </si>
   <si>
+    <t xml:space="preserve">FR</t>
+  </si>
+  <si>
     <t xml:space="preserve">GAB</t>
   </si>
   <si>
     <t xml:space="preserve">Gabón</t>
   </si>
   <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
     <t xml:space="preserve">GBR</t>
   </si>
   <si>
     <t xml:space="preserve">Reino Unido</t>
   </si>
   <si>
+    <t xml:space="preserve">GB</t>
+  </si>
+  <si>
     <t xml:space="preserve">GEO</t>
   </si>
   <si>
     <t xml:space="preserve">Georgia</t>
   </si>
   <si>
+    <t xml:space="preserve">GE</t>
+  </si>
+  <si>
     <t xml:space="preserve">GHA</t>
   </si>
   <si>
     <t xml:space="preserve">Ghana</t>
   </si>
   <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
     <t xml:space="preserve">GIN</t>
   </si>
   <si>
     <t xml:space="preserve">Guinea</t>
   </si>
   <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
     <t xml:space="preserve">GMB</t>
   </si>
   <si>
     <t xml:space="preserve">Gambia</t>
   </si>
   <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
     <t xml:space="preserve">GRC</t>
   </si>
   <si>
     <t xml:space="preserve">Grecia</t>
   </si>
   <si>
+    <t xml:space="preserve">GR</t>
+  </si>
+  <si>
     <t xml:space="preserve">GTM</t>
   </si>
   <si>
     <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
     <t xml:space="preserve">HKG</t>
   </si>
   <si>
     <t xml:space="preserve">Hong Kong, Región Administrativa Especial</t>
   </si>
   <si>
+    <t xml:space="preserve">HK</t>
+  </si>
+  <si>
     <t xml:space="preserve">HND</t>
   </si>
   <si>
     <t xml:space="preserve">Honduras</t>
   </si>
   <si>
+    <t xml:space="preserve">HN</t>
+  </si>
+  <si>
     <t xml:space="preserve">HRV</t>
   </si>
   <si>
     <t xml:space="preserve">Croacia</t>
   </si>
   <si>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
     <t xml:space="preserve">HTI</t>
   </si>
   <si>
     <t xml:space="preserve">Haití</t>
   </si>
   <si>
+    <t xml:space="preserve">HT</t>
+  </si>
+  <si>
     <t xml:space="preserve">HUN</t>
   </si>
   <si>
     <t xml:space="preserve">Hungría</t>
   </si>
   <si>
+    <t xml:space="preserve">HU</t>
+  </si>
+  <si>
     <t xml:space="preserve">IDN</t>
   </si>
   <si>
     <t xml:space="preserve">Indonesia</t>
   </si>
   <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">IND</t>
   </si>
   <si>
     <t xml:space="preserve">India</t>
   </si>
   <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
     <t xml:space="preserve">IRL</t>
   </si>
   <si>
     <t xml:space="preserve">Irlanda</t>
   </si>
   <si>
+    <t xml:space="preserve">IE</t>
+  </si>
+  <si>
     <t xml:space="preserve">IRN</t>
   </si>
   <si>
     <t xml:space="preserve">Irán, República Islámica del</t>
   </si>
   <si>
+    <t xml:space="preserve">IR</t>
+  </si>
+  <si>
     <t xml:space="preserve">IRQ</t>
   </si>
   <si>
     <t xml:space="preserve">Iraq</t>
   </si>
   <si>
+    <t xml:space="preserve">IQ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ISR</t>
   </si>
   <si>
     <t xml:space="preserve">Israel</t>
   </si>
   <si>
+    <t xml:space="preserve">IL</t>
+  </si>
+  <si>
     <t xml:space="preserve">ITA</t>
   </si>
   <si>
     <t xml:space="preserve">Italia</t>
   </si>
   <si>
+    <t xml:space="preserve">IT</t>
+  </si>
+  <si>
     <t xml:space="preserve">JAM</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica</t>
   </si>
   <si>
+    <t xml:space="preserve">JM</t>
+  </si>
+  <si>
     <t xml:space="preserve">JOR</t>
   </si>
   <si>
     <t xml:space="preserve">Jordania</t>
   </si>
   <si>
+    <t xml:space="preserve">JO</t>
+  </si>
+  <si>
     <t xml:space="preserve">JPN</t>
   </si>
   <si>
     <t xml:space="preserve">Japón</t>
   </si>
   <si>
+    <t xml:space="preserve">JP</t>
+  </si>
+  <si>
     <t xml:space="preserve">KAZ</t>
   </si>
   <si>
     <t xml:space="preserve">Kazajstán</t>
   </si>
   <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">KEN</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya</t>
   </si>
   <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
     <t xml:space="preserve">KGZ</t>
   </si>
   <si>
     <t xml:space="preserve">Kirguistán</t>
   </si>
   <si>
+    <t xml:space="preserve">KG</t>
+  </si>
+  <si>
     <t xml:space="preserve">KHM</t>
   </si>
   <si>
     <t xml:space="preserve">Camboya</t>
   </si>
   <si>
+    <t xml:space="preserve">KH</t>
+  </si>
+  <si>
     <t xml:space="preserve">KOR</t>
   </si>
   <si>
     <t xml:space="preserve">Corea, República de</t>
   </si>
   <si>
+    <t xml:space="preserve">KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAO</t>
   </si>
   <si>
     <t xml:space="preserve">República Democrática Popular Lao</t>
   </si>
   <si>
+    <t xml:space="preserve">LA</t>
+  </si>
+  <si>
     <t xml:space="preserve">LBR</t>
   </si>
   <si>
     <t xml:space="preserve">Liberia</t>
   </si>
   <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
     <t xml:space="preserve">LKA</t>
   </si>
   <si>
     <t xml:space="preserve">Sri Lanka</t>
   </si>
   <si>
+    <t xml:space="preserve">LK</t>
+  </si>
+  <si>
     <t xml:space="preserve">LSO</t>
   </si>
   <si>
     <t xml:space="preserve">Lesotho</t>
   </si>
   <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
     <t xml:space="preserve">LTU</t>
   </si>
   <si>
     <t xml:space="preserve">Lituania</t>
   </si>
   <si>
+    <t xml:space="preserve">LT</t>
+  </si>
+  <si>
     <t xml:space="preserve">LUX</t>
   </si>
   <si>
     <t xml:space="preserve">Luxemburgo</t>
   </si>
   <si>
+    <t xml:space="preserve">LU</t>
+  </si>
+  <si>
     <t xml:space="preserve">LVA</t>
   </si>
   <si>
     <t xml:space="preserve">Letonia</t>
   </si>
   <si>
+    <t xml:space="preserve">LV</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAR</t>
   </si>
   <si>
     <t xml:space="preserve">Marruecos</t>
   </si>
   <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
     <t xml:space="preserve">MDA</t>
   </si>
   <si>
     <t xml:space="preserve">República de Moldova</t>
   </si>
   <si>
+    <t xml:space="preserve">MD</t>
+  </si>
+  <si>
     <t xml:space="preserve">MDG</t>
   </si>
   <si>
     <t xml:space="preserve">Madagascar</t>
   </si>
   <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
     <t xml:space="preserve">MEX</t>
   </si>
   <si>
     <t xml:space="preserve">México</t>
   </si>
   <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
     <t xml:space="preserve">MKD</t>
   </si>
   <si>
     <t xml:space="preserve">Macedonia del Norte</t>
   </si>
   <si>
+    <t xml:space="preserve">MK</t>
+  </si>
+  <si>
     <t xml:space="preserve">MLI</t>
   </si>
   <si>
     <t xml:space="preserve">Malí</t>
   </si>
   <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
     <t xml:space="preserve">MLT</t>
   </si>
   <si>
     <t xml:space="preserve">Malta</t>
   </si>
   <si>
+    <t xml:space="preserve">MT</t>
+  </si>
+  <si>
     <t xml:space="preserve">MMR</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar</t>
   </si>
   <si>
+    <t xml:space="preserve">MM</t>
+  </si>
+  <si>
     <t xml:space="preserve">MNE</t>
   </si>
   <si>
     <t xml:space="preserve">Montenegro</t>
   </si>
   <si>
+    <t xml:space="preserve">ME</t>
+  </si>
+  <si>
     <t xml:space="preserve">MNG</t>
   </si>
   <si>
     <t xml:space="preserve">Mongolia</t>
   </si>
   <si>
+    <t xml:space="preserve">MN</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOZ</t>
   </si>
   <si>
     <t xml:space="preserve">Mozambique</t>
   </si>
   <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">MRT</t>
   </si>
   <si>
     <t xml:space="preserve">Mauritania</t>
   </si>
   <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
     <t xml:space="preserve">MWI</t>
   </si>
   <si>
     <t xml:space="preserve">Malawi</t>
   </si>
   <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
     <t xml:space="preserve">NAM</t>
   </si>
   <si>
@@ -557,250 +815,376 @@
     <t xml:space="preserve">Níger</t>
   </si>
   <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
     <t xml:space="preserve">NGA</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria</t>
   </si>
   <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
     <t xml:space="preserve">NIC</t>
   </si>
   <si>
     <t xml:space="preserve">Nicaragua</t>
   </si>
   <si>
+    <t xml:space="preserve">NI</t>
+  </si>
+  <si>
     <t xml:space="preserve">NLD</t>
   </si>
   <si>
     <t xml:space="preserve">Países Bajos</t>
   </si>
   <si>
+    <t xml:space="preserve">NL</t>
+  </si>
+  <si>
     <t xml:space="preserve">NOR</t>
   </si>
   <si>
     <t xml:space="preserve">Noruega</t>
   </si>
   <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
     <t xml:space="preserve">NPL</t>
   </si>
   <si>
     <t xml:space="preserve">Nepal</t>
   </si>
   <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
     <t xml:space="preserve">NZL</t>
   </si>
   <si>
     <t xml:space="preserve">Nueva Zelandia</t>
   </si>
   <si>
+    <t xml:space="preserve">NZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">PAK</t>
   </si>
   <si>
     <t xml:space="preserve">Pakistán</t>
   </si>
   <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
     <t xml:space="preserve">PAN</t>
   </si>
   <si>
     <t xml:space="preserve">Panamá</t>
   </si>
   <si>
+    <t xml:space="preserve">PA</t>
+  </si>
+  <si>
     <t xml:space="preserve">PER</t>
   </si>
   <si>
     <t xml:space="preserve">Perú</t>
   </si>
   <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
     <t xml:space="preserve">PHL</t>
   </si>
   <si>
     <t xml:space="preserve">Filipinas</t>
   </si>
   <si>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
     <t xml:space="preserve">POL</t>
   </si>
   <si>
     <t xml:space="preserve">Polonia</t>
   </si>
   <si>
+    <t xml:space="preserve">PL</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRT</t>
   </si>
   <si>
     <t xml:space="preserve">Portugal</t>
   </si>
   <si>
+    <t xml:space="preserve">PT</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRY</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay</t>
   </si>
   <si>
+    <t xml:space="preserve">PY</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSE</t>
   </si>
   <si>
     <t xml:space="preserve">Ribera Occidental y Gaza</t>
   </si>
   <si>
+    <t xml:space="preserve">PS</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROU</t>
   </si>
   <si>
     <t xml:space="preserve">Rumania</t>
   </si>
   <si>
+    <t xml:space="preserve">RO</t>
+  </si>
+  <si>
     <t xml:space="preserve">RWA</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda</t>
   </si>
   <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEN</t>
   </si>
   <si>
     <t xml:space="preserve">Senegal</t>
   </si>
   <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
     <t xml:space="preserve">SGP</t>
   </si>
   <si>
     <t xml:space="preserve">Singapur</t>
   </si>
   <si>
+    <t xml:space="preserve">SG</t>
+  </si>
+  <si>
     <t xml:space="preserve">SLE</t>
   </si>
   <si>
     <t xml:space="preserve">Sierra Leona</t>
   </si>
   <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
     <t xml:space="preserve">SLV</t>
   </si>
   <si>
     <t xml:space="preserve">El Salvador</t>
   </si>
   <si>
+    <t xml:space="preserve">SV</t>
+  </si>
+  <si>
     <t xml:space="preserve">SRB</t>
   </si>
   <si>
     <t xml:space="preserve">Serbia</t>
   </si>
   <si>
+    <t xml:space="preserve">RS</t>
+  </si>
+  <si>
     <t xml:space="preserve">SVK</t>
   </si>
   <si>
     <t xml:space="preserve">República Eslovaca</t>
   </si>
   <si>
+    <t xml:space="preserve">SK</t>
+  </si>
+  <si>
     <t xml:space="preserve">SVN</t>
   </si>
   <si>
     <t xml:space="preserve">Eslovenia</t>
   </si>
   <si>
+    <t xml:space="preserve">SI</t>
+  </si>
+  <si>
     <t xml:space="preserve">SWE</t>
   </si>
   <si>
     <t xml:space="preserve">Suecia</t>
   </si>
   <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
     <t xml:space="preserve">TCD</t>
   </si>
   <si>
     <t xml:space="preserve">Chad</t>
   </si>
   <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
     <t xml:space="preserve">TGO</t>
   </si>
   <si>
     <t xml:space="preserve">Togo</t>
   </si>
   <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
     <t xml:space="preserve">THA</t>
   </si>
   <si>
     <t xml:space="preserve">Tailandia</t>
   </si>
   <si>
+    <t xml:space="preserve">TH</t>
+  </si>
+  <si>
     <t xml:space="preserve">TJK</t>
   </si>
   <si>
     <t xml:space="preserve">Tayikistán</t>
   </si>
   <si>
+    <t xml:space="preserve">TJ</t>
+  </si>
+  <si>
     <t xml:space="preserve">TTO</t>
   </si>
   <si>
     <t xml:space="preserve">Trinidad y Tobago</t>
   </si>
   <si>
+    <t xml:space="preserve">TT</t>
+  </si>
+  <si>
     <t xml:space="preserve">TUN</t>
   </si>
   <si>
     <t xml:space="preserve">Túnez</t>
   </si>
   <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
     <t xml:space="preserve">TUR</t>
   </si>
   <si>
     <t xml:space="preserve">Turquía</t>
   </si>
   <si>
+    <t xml:space="preserve">TR</t>
+  </si>
+  <si>
     <t xml:space="preserve">TZA</t>
   </si>
   <si>
     <t xml:space="preserve">Tanzanía</t>
   </si>
   <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">UGA</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda</t>
   </si>
   <si>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
     <t xml:space="preserve">UKR</t>
   </si>
   <si>
     <t xml:space="preserve">Ucrania</t>
   </si>
   <si>
+    <t xml:space="preserve">UA</t>
+  </si>
+  <si>
     <t xml:space="preserve">URY</t>
   </si>
   <si>
     <t xml:space="preserve">Uruguay</t>
   </si>
   <si>
+    <t xml:space="preserve">UY</t>
+  </si>
+  <si>
     <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Estados Unidos</t>
   </si>
   <si>
+    <t xml:space="preserve">US</t>
+  </si>
+  <si>
     <t xml:space="preserve">UZB</t>
   </si>
   <si>
     <t xml:space="preserve">Uzbekistán</t>
   </si>
   <si>
+    <t xml:space="preserve">UZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">VNM</t>
   </si>
   <si>
     <t xml:space="preserve">Viet Nam</t>
   </si>
   <si>
+    <t xml:space="preserve">VN</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZAF</t>
   </si>
   <si>
     <t xml:space="preserve">Sudáfrica</t>
   </si>
   <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZMB</t>
   </si>
   <si>
     <t xml:space="preserve">Zambia</t>
   </si>
   <si>
+    <t xml:space="preserve">ZM</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZWE</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZW</t>
   </si>
 </sst>
 </file>
@@ -1154,13 +1538,16 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>18551.716479374</v>
@@ -1177,13 +1564,16 @@
       <c r="G2" t="n">
         <v>13.4</v>
       </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
         <v>26504.5905619696</v>
@@ -1200,13 +1590,16 @@
       <c r="G3" t="n">
         <v>7.1</v>
       </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>18941.5268080528</v>
@@ -1223,13 +1616,16 @@
       <c r="G4" t="n">
         <v>19.4</v>
       </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
         <v>62625.357642365</v>
@@ -1246,13 +1642,16 @@
       <c r="G5" t="n">
         <v>23.6</v>
       </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
         <v>67935.8479736373</v>
@@ -1269,13 +1668,16 @@
       <c r="G6" t="n">
         <v>12.1</v>
       </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
         <v>17764.4455885439</v>
@@ -1292,13 +1694,16 @@
       <c r="G7" t="n">
         <v>21.4</v>
       </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
         <v>65027.2948954044</v>
@@ -1315,13 +1720,16 @@
       <c r="G8" t="n">
         <v>10.3</v>
       </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
         <v>4056.10834076599</v>
@@ -1338,13 +1746,16 @@
       <c r="G9" t="n">
         <v>53.3</v>
       </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
         <v>2545.86354868676</v>
@@ -1361,13 +1772,16 @@
       <c r="G10" t="n">
         <v>13.8</v>
       </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
         <v>7395.09598677725</v>
@@ -1384,13 +1798,16 @@
       <c r="G11" t="n">
         <v>47.5</v>
       </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C12" t="n">
         <v>33582.2826109196</v>
@@ -1407,13 +1824,16 @@
       <c r="G12" t="n">
         <v>20.1</v>
       </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C13" t="n">
         <v>20376.8921942473</v>
@@ -1430,13 +1850,16 @@
       <c r="G13" t="n">
         <v>17.1</v>
       </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C14" t="n">
         <v>9683.61749663174</v>
@@ -1453,13 +1876,16 @@
       <c r="G14" t="n">
         <v>12.7</v>
       </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C15" t="n">
         <v>17821.7372609877</v>
@@ -1476,13 +1902,16 @@
       <c r="G15" t="n">
         <v>23.9</v>
       </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C16" t="n">
         <v>18323.0457028393</v>
@@ -1499,13 +1928,16 @@
       <c r="G16" t="n">
         <v>52.4</v>
       </c>
+      <c r="H16" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C17" t="n">
         <v>967.268323827568</v>
@@ -1522,13 +1954,16 @@
       <c r="G17" t="n">
         <v>54.2</v>
       </c>
+      <c r="H17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C18" t="n">
         <v>58399.5454813184</v>
@@ -1545,13 +1980,16 @@
       <c r="G18" t="n">
         <v>23.5</v>
       </c>
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C19" t="n">
         <v>83598.453356565</v>
@@ -1568,13 +2006,16 @@
       <c r="G19" t="n">
         <v>6.5</v>
       </c>
+      <c r="H19" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C20" t="n">
         <v>30208.805531053</v>
@@ -1591,13 +2032,16 @@
       <c r="G20" t="n">
         <v>16.6</v>
       </c>
+      <c r="H20" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C21" t="n">
         <v>6538.29641989437</v>
@@ -1614,13 +2058,16 @@
       <c r="G21" t="n">
         <v>20.4</v>
       </c>
+      <c r="H21" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C22" t="n">
         <v>4408.04627354922</v>
@@ -1637,13 +2084,16 @@
       <c r="G22" t="n">
         <v>45.4</v>
       </c>
+      <c r="H22" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C23" t="n">
         <v>1337.39111505169</v>
@@ -1660,13 +2110,16 @@
       <c r="G23" t="n">
         <v>20.7</v>
       </c>
+      <c r="H23" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C24" t="n">
         <v>3790.71130701161</v>
@@ -1683,13 +2136,16 @@
       <c r="G24" t="n">
         <v>58.3</v>
       </c>
+      <c r="H24" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C25" t="n">
         <v>20287.4002631682</v>
@@ -1706,13 +2162,16 @@
       <c r="G25" t="n">
         <v>20.6</v>
       </c>
+      <c r="H25" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C26" t="n">
         <v>24922.659274084</v>
@@ -1729,13 +2188,16 @@
       <c r="G26" t="n">
         <v>10.5</v>
       </c>
+      <c r="H26" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C27" t="n">
         <v>49930.8671875</v>
@@ -1752,13 +2214,16 @@
       <c r="G27" t="n">
         <v>36.7</v>
       </c>
+      <c r="H27" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C28" t="n">
         <v>49945.5001044375</v>
@@ -1775,13 +2240,16 @@
       <c r="G28" t="n">
         <v>26.3</v>
       </c>
+      <c r="H28" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C29" t="n">
         <v>63149.5986898098</v>
@@ -1798,13 +2266,16 @@
       <c r="G29" t="n">
         <v>14.3</v>
       </c>
+      <c r="H29" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C30" t="n">
         <v>74005.4785197575</v>
@@ -1821,13 +2292,16 @@
       <c r="G30" t="n">
         <v>11</v>
       </c>
+      <c r="H30" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C31" t="n">
         <v>22833.5257548031</v>
@@ -1844,13 +2318,16 @@
       <c r="G31" t="n">
         <v>11.2</v>
       </c>
+      <c r="H31" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C32" t="n">
         <v>13209.5967685963</v>
@@ -1867,13 +2344,16 @@
       <c r="G32" t="n">
         <v>61.3</v>
       </c>
+      <c r="H32" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="C33" t="n">
         <v>12822.1137763438</v>
@@ -1890,13 +2370,16 @@
       <c r="G33" t="n">
         <v>15.1</v>
       </c>
+      <c r="H33" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="C34" t="n">
         <v>45825.1956330087</v>
@@ -1913,13 +2396,16 @@
       <c r="G34" t="n">
         <v>5.8</v>
       </c>
+      <c r="H34" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C35" t="n">
         <v>46697.3597360426</v>
@@ -1936,13 +2422,16 @@
       <c r="G35" t="n">
         <v>21.5</v>
       </c>
+      <c r="H35" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="C36" t="n">
         <v>2811.58174439039</v>
@@ -1959,13 +2448,16 @@
       <c r="G36" t="n">
         <v>17.9</v>
       </c>
+      <c r="H36" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="C37" t="n">
         <v>59026.7073352151</v>
@@ -1982,13 +2474,16 @@
       <c r="G37" t="n">
         <v>18.3</v>
       </c>
+      <c r="H37" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="C38" t="n">
         <v>55492.5655467571</v>
@@ -2005,13 +2500,16 @@
       <c r="G38" t="n">
         <v>5.3</v>
       </c>
+      <c r="H38" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="C39" t="n">
         <v>16470.5835350355</v>
@@ -2028,13 +2526,16 @@
       <c r="G39" t="n">
         <v>25.6</v>
       </c>
+      <c r="H39" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="C40" t="n">
         <v>54602.544380158</v>
@@ -2051,13 +2552,16 @@
       <c r="G40" t="n">
         <v>6.7</v>
       </c>
+      <c r="H40" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="C41" t="n">
         <v>20113.3772367561</v>
@@ -2074,13 +2578,16 @@
       <c r="G41" t="n">
         <v>18.7</v>
       </c>
+      <c r="H41" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="C42" t="n">
         <v>6498.38572689223</v>
@@ -2097,13 +2604,16 @@
       <c r="G42" t="n">
         <v>22.7</v>
       </c>
+      <c r="H42" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="C43" t="n">
         <v>3187.01934316651</v>
@@ -2120,13 +2630,16 @@
       <c r="G43" t="n">
         <v>44.4</v>
       </c>
+      <c r="H43" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="C44" t="n">
         <v>2509.82951159683</v>
@@ -2143,13 +2656,16 @@
       <c r="G44" t="n">
         <v>48.4</v>
       </c>
+      <c r="H44" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="C45" t="n">
         <v>36834.8710885703</v>
@@ -2166,13 +2682,16 @@
       <c r="G45" t="n">
         <v>16.6</v>
       </c>
+      <c r="H45" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="C46" t="n">
         <v>10818.1717242445</v>
@@ -2189,13 +2708,16 @@
       <c r="G46" t="n">
         <v>43.4</v>
       </c>
+      <c r="H46" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="C47" t="n">
         <v>69049.4365393847</v>
@@ -2210,13 +2732,16 @@
       <c r="G47" t="n">
         <v>26.7</v>
       </c>
+      <c r="H47" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="C48" t="n">
         <v>6741.09694744697</v>
@@ -2233,13 +2758,16 @@
       <c r="G48" t="n">
         <v>15.3</v>
       </c>
+      <c r="H48" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="C49" t="n">
         <v>40379.5724355217</v>
@@ -2256,13 +2784,16 @@
       <c r="G49" t="n">
         <v>17.9</v>
       </c>
+      <c r="H49" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="C50" t="n">
         <v>3305.07595475506</v>
@@ -2279,13 +2810,16 @@
       <c r="G50" t="n">
         <v>59.1</v>
       </c>
+      <c r="H50" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="C51" t="n">
         <v>41906.6555658699</v>
@@ -2302,13 +2836,16 @@
       <c r="G51" t="n">
         <v>27.6</v>
       </c>
+      <c r="H51" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="C52" t="n">
         <v>14652.9282752376</v>
@@ -2325,13 +2862,16 @@
       <c r="G52" t="n">
         <v>40.4</v>
       </c>
+      <c r="H52" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="C53" t="n">
         <v>8379.06248736089</v>
@@ -2348,13 +2888,16 @@
       <c r="G53" t="n">
         <v>21.2</v>
       </c>
+      <c r="H53" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="C54" t="n">
         <v>126905.198534476</v>
@@ -2371,13 +2914,16 @@
       <c r="G54" t="n">
         <v>11.8</v>
       </c>
+      <c r="H54" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="C55" t="n">
         <v>18075.0549731636</v>
@@ -2394,13 +2940,16 @@
       <c r="G55" t="n">
         <v>75.1</v>
       </c>
+      <c r="H55" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="C56" t="n">
         <v>10861.8218937668</v>
@@ -2417,13 +2966,16 @@
       <c r="G56" t="n">
         <v>51.5</v>
       </c>
+      <c r="H56" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="C57" t="n">
         <v>49509.1289935125</v>
@@ -2440,13 +2992,16 @@
       <c r="G57" t="n">
         <v>38.4</v>
       </c>
+      <c r="H57" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="C58" t="n">
         <v>51864.9777354821</v>
@@ -2463,13 +3018,16 @@
       <c r="G58" t="n">
         <v>8.9</v>
       </c>
+      <c r="H58" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="C59" t="n">
         <v>11821.5849455897</v>
@@ -2486,13 +3044,16 @@
       <c r="G59" t="n">
         <v>22.9</v>
       </c>
+      <c r="H59" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="C60" t="n">
         <v>11003.1245205792</v>
@@ -2509,13 +3070,16 @@
       <c r="G60" t="n">
         <v>63.1</v>
       </c>
+      <c r="H60" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="C61" t="n">
         <v>45572.7238228213</v>
@@ -2532,13 +3096,16 @@
       <c r="G61" t="n">
         <v>24.8</v>
       </c>
+      <c r="H61" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="C62" t="n">
         <v>30809.8794265678</v>
@@ -2555,13 +3122,16 @@
       <c r="G62" t="n">
         <v>21.8</v>
       </c>
+      <c r="H62" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="C63" t="n">
         <v>5763.91009193441</v>
@@ -2578,13 +3148,16 @@
       <c r="G63" t="n">
         <v>17.2</v>
       </c>
+      <c r="H63" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="C64" t="n">
         <v>6132.51472138704</v>
@@ -2601,13 +3174,16 @@
       <c r="G64" t="n">
         <v>18</v>
       </c>
+      <c r="H64" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="C65" t="n">
         <v>5349.46379391855</v>
@@ -2624,13 +3200,16 @@
       <c r="G65" t="n">
         <v>40.9</v>
       </c>
+      <c r="H65" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="C66" t="n">
         <v>50069.8233877975</v>
@@ -2647,13 +3226,16 @@
       <c r="G66" t="n">
         <v>20.4</v>
       </c>
+      <c r="H66" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="C67" t="n">
         <v>9384.26569540426</v>
@@ -2670,13 +3252,16 @@
       <c r="G67" t="n">
         <v>29</v>
       </c>
+      <c r="H67" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
       <c r="C68" t="n">
         <v>1724.99785498788</v>
@@ -2693,13 +3278,16 @@
       <c r="G68" t="n">
         <v>52.8</v>
       </c>
+      <c r="H68" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>210</v>
       </c>
       <c r="C69" t="n">
         <v>14405.4159547053</v>
@@ -2716,13 +3304,16 @@
       <c r="G69" t="n">
         <v>28.6</v>
       </c>
+      <c r="H69" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>213</v>
       </c>
       <c r="C70" t="n">
         <v>2694.54661561976</v>
@@ -2739,13 +3330,16 @@
       <c r="G70" t="n">
         <v>37.6</v>
       </c>
+      <c r="H70" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>216</v>
       </c>
       <c r="C71" t="n">
         <v>48396.6935449884</v>
@@ -2762,13 +3356,16 @@
       <c r="G71" t="n">
         <v>19.7</v>
       </c>
+      <c r="H71" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="C72" t="n">
         <v>142213.851685246</v>
@@ -2785,13 +3382,16 @@
       <c r="G72" t="n">
         <v>8.1</v>
       </c>
+      <c r="H72" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="C73" t="n">
         <v>39956.1904770152</v>
@@ -2808,13 +3408,16 @@
       <c r="G73" t="n">
         <v>27.7</v>
       </c>
+      <c r="H73" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>151</v>
+        <v>224</v>
       </c>
       <c r="B74" t="s">
-        <v>152</v>
+        <v>225</v>
       </c>
       <c r="C74" t="n">
         <v>9518.7060546875</v>
@@ -2831,13 +3434,16 @@
       <c r="G74" t="n">
         <v>59.3</v>
       </c>
+      <c r="H74" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="B75" t="s">
-        <v>154</v>
+        <v>228</v>
       </c>
       <c r="C75" t="n">
         <v>15238.1482100206</v>
@@ -2854,13 +3460,16 @@
       <c r="G75" t="n">
         <v>11</v>
       </c>
+      <c r="H75" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c r="B76" t="s">
-        <v>156</v>
+        <v>231</v>
       </c>
       <c r="C76" t="n">
         <v>1774.06870896083</v>
@@ -2877,13 +3486,16 @@
       <c r="G76" t="n">
         <v>59.4</v>
       </c>
+      <c r="H76" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="B77" t="s">
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="C77" t="n">
         <v>21512.2695445099</v>
@@ -2900,13 +3512,16 @@
       <c r="G77" t="n">
         <v>14.6</v>
       </c>
+      <c r="H77" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
+        <v>237</v>
       </c>
       <c r="C78" t="n">
         <v>20161.7509096161</v>
@@ -2923,13 +3538,16 @@
       <c r="G78" t="n">
         <v>15.2</v>
       </c>
+      <c r="H78" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="C79" t="n">
         <v>2517.14726297399</v>
@@ -2946,13 +3564,16 @@
       <c r="G79" t="n">
         <v>28.9</v>
       </c>
+      <c r="H79" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>163</v>
+        <v>242</v>
       </c>
       <c r="B80" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="C80" t="n">
         <v>55927.8593837575</v>
@@ -2969,13 +3590,16 @@
       <c r="G80" t="n">
         <v>26.3</v>
       </c>
+      <c r="H80" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="B81" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="C81" t="n">
         <v>4870.02149904408</v>
@@ -2992,13 +3616,16 @@
       <c r="G81" t="n">
         <v>54.9</v>
       </c>
+      <c r="H81" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>167</v>
+        <v>248</v>
       </c>
       <c r="B82" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="C82" t="n">
         <v>26984.0688997887</v>
@@ -3015,13 +3642,16 @@
       <c r="G82" t="n">
         <v>13.7</v>
       </c>
+      <c r="H82" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>169</v>
+        <v>251</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
       <c r="C83" t="n">
         <v>14230.2335543192</v>
@@ -3038,13 +3668,16 @@
       <c r="G83" t="n">
         <v>22.9</v>
       </c>
+      <c r="H83" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>171</v>
+        <v>254</v>
       </c>
       <c r="B84" t="s">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="C84" t="n">
         <v>1467.7697663869</v>
@@ -3061,13 +3694,16 @@
       <c r="G84" t="n">
         <v>32.9</v>
       </c>
+      <c r="H84" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>173</v>
+        <v>257</v>
       </c>
       <c r="B85" t="s">
-        <v>174</v>
+        <v>258</v>
       </c>
       <c r="C85" t="n">
         <v>6424.11689465832</v>
@@ -3084,13 +3720,16 @@
       <c r="G85" t="n">
         <v>52.2</v>
       </c>
+      <c r="H85" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>175</v>
+        <v>260</v>
       </c>
       <c r="B86" t="s">
-        <v>176</v>
+        <v>261</v>
       </c>
       <c r="C86" t="n">
         <v>1732.03034334458</v>
@@ -3107,13 +3746,16 @@
       <c r="G86" t="n">
         <v>61.9</v>
       </c>
+      <c r="H86" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>177</v>
+        <v>263</v>
       </c>
       <c r="B87" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="C87" t="n">
         <v>11205.7060833117</v>
@@ -3130,13 +3772,14 @@
       <c r="G87" t="n">
         <v>35.1</v>
       </c>
+      <c r="H87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="B88" t="s">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="C88" t="n">
         <v>1505.24267567992</v>
@@ -3153,13 +3796,16 @@
       <c r="G88" t="n">
         <v>25.6</v>
       </c>
+      <c r="H88" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>181</v>
+        <v>268</v>
       </c>
       <c r="B89" t="s">
-        <v>182</v>
+        <v>269</v>
       </c>
       <c r="C89" t="n">
         <v>5860.29373601491</v>
@@ -3176,13 +3822,16 @@
       <c r="G89" t="n">
         <v>53.9</v>
       </c>
+      <c r="H89" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>183</v>
+        <v>271</v>
       </c>
       <c r="B90" t="s">
-        <v>184</v>
+        <v>272</v>
       </c>
       <c r="C90" t="n">
         <v>6874.8118293988</v>
@@ -3199,13 +3848,16 @@
       <c r="G90" t="n">
         <v>6.2</v>
       </c>
+      <c r="H90" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>185</v>
+        <v>274</v>
       </c>
       <c r="B91" t="s">
-        <v>186</v>
+        <v>275</v>
       </c>
       <c r="C91" t="n">
         <v>69577.4045796776</v>
@@ -3222,13 +3874,16 @@
       <c r="G91" t="n">
         <v>21.1</v>
       </c>
+      <c r="H91" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="B92" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="C92" t="n">
         <v>114898.759885569</v>
@@ -3245,13 +3900,16 @@
       <c r="G92" t="n">
         <v>19.5</v>
       </c>
+      <c r="H92" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="B93" t="s">
-        <v>190</v>
+        <v>281</v>
       </c>
       <c r="C93" t="n">
         <v>4725.0412440518</v>
@@ -3268,13 +3926,16 @@
       <c r="G93" t="n">
         <v>40.2</v>
       </c>
+      <c r="H93" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>191</v>
+        <v>283</v>
       </c>
       <c r="B94" t="s">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c r="C94" t="n">
         <v>51966.8625777626</v>
@@ -3291,13 +3952,16 @@
       <c r="G94" t="n">
         <v>22</v>
       </c>
+      <c r="H94" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="B95" t="s">
-        <v>194</v>
+        <v>287</v>
       </c>
       <c r="C95" t="n">
         <v>6437.16266275667</v>
@@ -3314,13 +3978,16 @@
       <c r="G95" t="n">
         <v>53.1</v>
       </c>
+      <c r="H95" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="B96" t="s">
-        <v>196</v>
+        <v>290</v>
       </c>
       <c r="C96" t="n">
         <v>39279.6753765989</v>
@@ -3337,13 +4004,16 @@
       <c r="G96" t="n">
         <v>17.8</v>
       </c>
+      <c r="H96" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="B97" t="s">
-        <v>198</v>
+        <v>293</v>
       </c>
       <c r="C97" t="n">
         <v>15047.5183272037</v>
@@ -3360,13 +4030,16 @@
       <c r="G97" t="n">
         <v>12.9</v>
       </c>
+      <c r="H97" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>199</v>
+        <v>295</v>
       </c>
       <c r="B98" t="s">
-        <v>200</v>
+        <v>296</v>
       </c>
       <c r="C98" t="n">
         <v>10133.1958943127</v>
@@ -3383,13 +4056,16 @@
       <c r="G98" t="n">
         <v>45.1</v>
       </c>
+      <c r="H98" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>201</v>
+        <v>298</v>
       </c>
       <c r="B99" t="s">
-        <v>202</v>
+        <v>299</v>
       </c>
       <c r="C99" t="n">
         <v>43268.5437126031</v>
@@ -3406,13 +4082,16 @@
       <c r="G99" t="n">
         <v>12.5</v>
       </c>
+      <c r="H99" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>203</v>
+        <v>301</v>
       </c>
       <c r="B100" t="s">
-        <v>204</v>
+        <v>302</v>
       </c>
       <c r="C100" t="n">
         <v>41451.6148656947</v>
@@ -3429,13 +4108,16 @@
       <c r="G100" t="n">
         <v>11.4</v>
       </c>
+      <c r="H100" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>205</v>
+        <v>304</v>
       </c>
       <c r="B101" t="s">
-        <v>206</v>
+        <v>305</v>
       </c>
       <c r="C101" t="n">
         <v>15977.3116536226</v>
@@ -3452,13 +4134,16 @@
       <c r="G101" t="n">
         <v>29.8</v>
       </c>
+      <c r="H101" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>207</v>
+        <v>307</v>
       </c>
       <c r="B102" t="s">
-        <v>208</v>
+        <v>308</v>
       </c>
       <c r="C102" t="n">
         <v>6756.78328459017</v>
@@ -3473,13 +4158,16 @@
       <c r="G102" t="n">
         <v>59.4</v>
       </c>
+      <c r="H102" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>209</v>
+        <v>310</v>
       </c>
       <c r="B103" t="s">
-        <v>210</v>
+        <v>311</v>
       </c>
       <c r="C103" t="n">
         <v>41887.9219020734</v>
@@ -3496,13 +4184,16 @@
       <c r="G103" t="n">
         <v>22.1</v>
       </c>
+      <c r="H103" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>211</v>
+        <v>313</v>
       </c>
       <c r="B104" t="s">
-        <v>212</v>
+        <v>314</v>
       </c>
       <c r="C104" t="n">
         <v>2792.42162516676</v>
@@ -3519,13 +4210,16 @@
       <c r="G104" t="n">
         <v>23.5</v>
       </c>
+      <c r="H104" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>213</v>
+        <v>316</v>
       </c>
       <c r="B105" t="s">
-        <v>214</v>
+        <v>317</v>
       </c>
       <c r="C105" t="n">
         <v>4208.96497879788</v>
@@ -3542,13 +4236,16 @@
       <c r="G105" t="n">
         <v>3.6</v>
       </c>
+      <c r="H105" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>215</v>
+        <v>319</v>
       </c>
       <c r="B106" t="s">
-        <v>216</v>
+        <v>320</v>
       </c>
       <c r="C106" t="n">
         <v>127564.556573776</v>
@@ -3565,13 +4262,16 @@
       <c r="G106" t="n">
         <v>49.2</v>
       </c>
+      <c r="H106" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>217</v>
+        <v>322</v>
       </c>
       <c r="B107" t="s">
-        <v>218</v>
+        <v>323</v>
       </c>
       <c r="C107" t="n">
         <v>1931.06733078033</v>
@@ -3588,13 +4288,16 @@
       <c r="G107" t="n">
         <v>40.9</v>
       </c>
+      <c r="H107" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>219</v>
+        <v>325</v>
       </c>
       <c r="B108" t="s">
-        <v>220</v>
+        <v>326</v>
       </c>
       <c r="C108" t="n">
         <v>11096.2132011865</v>
@@ -3611,13 +4314,16 @@
       <c r="G108" t="n">
         <v>17.8</v>
       </c>
+      <c r="H108" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="B109" t="s">
-        <v>222</v>
+        <v>329</v>
       </c>
       <c r="C109" t="n">
         <v>23911.2012200009</v>
@@ -3634,13 +4340,16 @@
       <c r="G109" t="n">
         <v>18</v>
       </c>
+      <c r="H109" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>223</v>
+        <v>331</v>
       </c>
       <c r="B110" t="s">
-        <v>224</v>
+        <v>332</v>
       </c>
       <c r="C110" t="n">
         <v>37459.4738440688</v>
@@ -3657,13 +4366,16 @@
       <c r="G110" t="n">
         <v>24.4</v>
       </c>
+      <c r="H110" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>225</v>
+        <v>334</v>
       </c>
       <c r="B111" t="s">
-        <v>226</v>
+        <v>335</v>
       </c>
       <c r="C111" t="n">
         <v>50031.6561840507</v>
@@ -3680,13 +4392,16 @@
       <c r="G111" t="n">
         <v>13.2</v>
       </c>
+      <c r="H111" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="B112" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
       <c r="C112" t="n">
         <v>64578.3963325427</v>
@@ -3703,13 +4418,16 @@
       <c r="G112" t="n">
         <v>16.2</v>
       </c>
+      <c r="H112" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>229</v>
+        <v>340</v>
       </c>
       <c r="B113" t="s">
-        <v>230</v>
+        <v>341</v>
       </c>
       <c r="C113" t="n">
         <v>1668.02296131439</v>
@@ -3726,13 +4444,16 @@
       <c r="G113" t="n">
         <v>27.2</v>
       </c>
+      <c r="H113" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>231</v>
+        <v>343</v>
       </c>
       <c r="B114" t="s">
-        <v>232</v>
+        <v>344</v>
       </c>
       <c r="C114" t="n">
         <v>2607.92768076896</v>
@@ -3749,13 +4470,16 @@
       <c r="G114" t="n">
         <v>62</v>
       </c>
+      <c r="H114" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>233</v>
+        <v>346</v>
       </c>
       <c r="B115" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="C115" t="n">
         <v>20671.6849201656</v>
@@ -3772,13 +4496,16 @@
       <c r="G115" t="n">
         <v>56.8</v>
       </c>
+      <c r="H115" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>235</v>
+        <v>349</v>
       </c>
       <c r="B116" t="s">
-        <v>236</v>
+        <v>350</v>
       </c>
       <c r="C116" t="n">
         <v>4885.12570059687</v>
@@ -3795,13 +4522,16 @@
       <c r="G116" t="n">
         <v>25.1</v>
       </c>
+      <c r="H116" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>237</v>
+        <v>352</v>
       </c>
       <c r="B117" t="s">
-        <v>238</v>
+        <v>353</v>
       </c>
       <c r="C117" t="n">
         <v>27778.1806029423</v>
@@ -3818,13 +4548,16 @@
       <c r="G117" t="n">
         <v>28.5</v>
       </c>
+      <c r="H117" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>239</v>
+        <v>355</v>
       </c>
       <c r="B118" t="s">
-        <v>240</v>
+        <v>356</v>
       </c>
       <c r="C118" t="n">
         <v>12489.7180681742</v>
@@ -3841,13 +4574,16 @@
       <c r="G118" t="n">
         <v>52.8</v>
       </c>
+      <c r="H118" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>241</v>
+        <v>358</v>
       </c>
       <c r="B119" t="s">
-        <v>242</v>
+        <v>359</v>
       </c>
       <c r="C119" t="n">
         <v>37273.6997606048</v>
@@ -3864,13 +4600,16 @@
       <c r="G119" t="n">
         <v>20</v>
       </c>
+      <c r="H119" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>243</v>
+        <v>361</v>
       </c>
       <c r="B120" t="s">
-        <v>244</v>
+        <v>362</v>
       </c>
       <c r="C120" t="n">
         <v>3096.88452148438</v>
@@ -3887,13 +4626,16 @@
       <c r="G120" t="n">
         <v>35.2</v>
       </c>
+      <c r="H120" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>245</v>
+        <v>364</v>
       </c>
       <c r="B121" t="s">
-        <v>246</v>
+        <v>365</v>
       </c>
       <c r="C121" t="n">
         <v>2693.81528630238</v>
@@ -3910,13 +4652,16 @@
       <c r="G121" t="n">
         <v>26.6</v>
       </c>
+      <c r="H121" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>247</v>
+        <v>367</v>
       </c>
       <c r="B122" t="s">
-        <v>248</v>
+        <v>368</v>
       </c>
       <c r="C122" t="n">
         <v>12671.2392578125</v>
@@ -3933,13 +4678,16 @@
       <c r="G122" t="n">
         <v>28.7</v>
       </c>
+      <c r="H122" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>249</v>
+        <v>370</v>
       </c>
       <c r="B123" t="s">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="C123" t="n">
         <v>28841.9857002361</v>
@@ -3956,13 +4704,16 @@
       <c r="G123" t="n">
         <v>22.8</v>
       </c>
+      <c r="H123" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>251</v>
+        <v>373</v>
       </c>
       <c r="B124" t="s">
-        <v>252</v>
+        <v>374</v>
       </c>
       <c r="C124" t="n">
         <v>76398.5917422057</v>
@@ -3979,13 +4730,16 @@
       <c r="G124" t="n">
         <v>22.9</v>
       </c>
+      <c r="H124" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>253</v>
+        <v>376</v>
       </c>
       <c r="B125" t="s">
-        <v>254</v>
+        <v>377</v>
       </c>
       <c r="C125" t="n">
         <v>9532.51186508938</v>
@@ -4002,13 +4756,16 @@
       <c r="G125" t="n">
         <v>23.5</v>
       </c>
+      <c r="H125" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>255</v>
+        <v>379</v>
       </c>
       <c r="B126" t="s">
-        <v>256</v>
+        <v>380</v>
       </c>
       <c r="C126" t="n">
         <v>13456.5514254011</v>
@@ -4025,13 +4782,16 @@
       <c r="G126" t="n">
         <v>13.8</v>
       </c>
+      <c r="H126" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>257</v>
+        <v>382</v>
       </c>
       <c r="B127" t="s">
-        <v>258</v>
+        <v>383</v>
       </c>
       <c r="C127" t="n">
         <v>15904.848362637</v>
@@ -4048,13 +4808,16 @@
       <c r="G127" t="n">
         <v>21</v>
       </c>
+      <c r="H127" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>259</v>
+        <v>385</v>
       </c>
       <c r="B128" t="s">
-        <v>260</v>
+        <v>386</v>
       </c>
       <c r="C128" t="n">
         <v>3894.31025862346</v>
@@ -4071,13 +4834,16 @@
       <c r="G128" t="n">
         <v>41.8</v>
       </c>
+      <c r="H128" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>261</v>
+        <v>388</v>
       </c>
       <c r="B129" t="s">
-        <v>262</v>
+        <v>389</v>
       </c>
       <c r="C129" t="n">
         <v>2530.64598671745</v>
@@ -4093,6 +4859,9 @@
       </c>
       <c r="G129" t="n">
         <v>30.9</v>
+      </c>
+      <c r="H129" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/Bases de Datos/data_final.xlsx
+++ b/Bases de Datos/data_final.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -38,6 +38,9 @@
     <t xml:space="preserve">ISO</t>
   </si>
   <si>
+    <t xml:space="preserve">Region</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALB</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
     <t xml:space="preserve">AL</t>
   </si>
   <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARG</t>
   </si>
   <si>
@@ -56,6 +62,9 @@
     <t xml:space="preserve">AR</t>
   </si>
   <si>
+    <t xml:space="preserve">Americas</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARM</t>
   </si>
   <si>
@@ -65,6 +74,9 @@
     <t xml:space="preserve">AM</t>
   </si>
   <si>
+    <t xml:space="preserve">Asia</t>
+  </si>
+  <si>
     <t xml:space="preserve">AUS</t>
   </si>
   <si>
@@ -74,6 +86,9 @@
     <t xml:space="preserve">AU</t>
   </si>
   <si>
+    <t xml:space="preserve">Oceania</t>
+  </si>
+  <si>
     <t xml:space="preserve">AUT</t>
   </si>
   <si>
@@ -108,6 +123,9 @@
   </si>
   <si>
     <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Africa</t>
   </si>
   <si>
     <t xml:space="preserve">BFA</t>
@@ -1541,13 +1559,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
         <v>18551.716479374</v>
@@ -1565,15 +1586,18 @@
         <v>13.4</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
         <v>26504.5905619696</v>
@@ -1591,15 +1615,18 @@
         <v>7.1</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
         <v>18941.5268080528</v>
@@ -1617,15 +1644,18 @@
         <v>19.4</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
         <v>62625.357642365</v>
@@ -1643,15 +1673,18 @@
         <v>23.6</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
         <v>67935.8479736373</v>
@@ -1669,15 +1702,18 @@
         <v>12.1</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
         <v>17764.4455885439</v>
@@ -1695,15 +1731,18 @@
         <v>21.4</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
         <v>65027.2948954044</v>
@@ -1721,15 +1760,18 @@
         <v>10.3</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C9" t="n">
         <v>4056.10834076599</v>
@@ -1747,15 +1789,18 @@
         <v>53.3</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C10" t="n">
         <v>2545.86354868676</v>
@@ -1773,15 +1818,18 @@
         <v>13.8</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
         <v>7395.09598677725</v>
@@ -1799,15 +1847,18 @@
         <v>47.5</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C12" t="n">
         <v>33582.2826109196</v>
@@ -1825,15 +1876,18 @@
         <v>20.1</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C13" t="n">
         <v>20376.8921942473</v>
@@ -1851,15 +1905,18 @@
         <v>17.1</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C14" t="n">
         <v>9683.61749663174</v>
@@ -1877,15 +1934,18 @@
         <v>12.7</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C15" t="n">
         <v>17821.7372609877</v>
@@ -1903,15 +1963,18 @@
         <v>23.9</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C16" t="n">
         <v>18323.0457028393</v>
@@ -1929,15 +1992,18 @@
         <v>52.4</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C17" t="n">
         <v>967.268323827568</v>
@@ -1955,15 +2021,18 @@
         <v>54.2</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C18" t="n">
         <v>58399.5454813184</v>
@@ -1981,15 +2050,18 @@
         <v>23.5</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C19" t="n">
         <v>83598.453356565</v>
@@ -2007,15 +2079,18 @@
         <v>6.5</v>
       </c>
       <c r="H19" t="s">
-        <v>61</v>
+        <v>67</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C20" t="n">
         <v>30208.805531053</v>
@@ -2033,15 +2108,18 @@
         <v>16.6</v>
       </c>
       <c r="H20" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C21" t="n">
         <v>6538.29641989437</v>
@@ -2059,15 +2137,18 @@
         <v>20.4</v>
       </c>
       <c r="H21" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="I21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C22" t="n">
         <v>4408.04627354922</v>
@@ -2085,15 +2166,18 @@
         <v>45.4</v>
       </c>
       <c r="H22" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="I22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C23" t="n">
         <v>1337.39111505169</v>
@@ -2111,15 +2195,18 @@
         <v>20.7</v>
       </c>
       <c r="H23" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="I23" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C24" t="n">
         <v>3790.71130701161</v>
@@ -2137,15 +2224,18 @@
         <v>58.3</v>
       </c>
       <c r="H24" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="I24" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C25" t="n">
         <v>20287.4002631682</v>
@@ -2163,15 +2253,18 @@
         <v>20.6</v>
       </c>
       <c r="H25" t="s">
-        <v>79</v>
+        <v>85</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C26" t="n">
         <v>24922.659274084</v>
@@ -2189,15 +2282,18 @@
         <v>10.5</v>
       </c>
       <c r="H26" t="s">
-        <v>82</v>
+        <v>88</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C27" t="n">
         <v>49930.8671875</v>
@@ -2215,15 +2311,18 @@
         <v>36.7</v>
       </c>
       <c r="H27" t="s">
-        <v>85</v>
+        <v>91</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C28" t="n">
         <v>49945.5001044375</v>
@@ -2241,15 +2340,18 @@
         <v>26.3</v>
       </c>
       <c r="H28" t="s">
-        <v>88</v>
+        <v>94</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C29" t="n">
         <v>63149.5986898098</v>
@@ -2267,15 +2369,18 @@
         <v>14.3</v>
       </c>
       <c r="H29" t="s">
-        <v>91</v>
+        <v>97</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C30" t="n">
         <v>74005.4785197575</v>
@@ -2293,15 +2398,18 @@
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>94</v>
+        <v>100</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C31" t="n">
         <v>22833.5257548031</v>
@@ -2319,15 +2427,18 @@
         <v>11.2</v>
       </c>
       <c r="H31" t="s">
-        <v>97</v>
+        <v>103</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C32" t="n">
         <v>13209.5967685963</v>
@@ -2345,15 +2456,18 @@
         <v>61.3</v>
       </c>
       <c r="H32" t="s">
-        <v>100</v>
+        <v>106</v>
+      </c>
+      <c r="I32" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C33" t="n">
         <v>12822.1137763438</v>
@@ -2371,15 +2485,18 @@
         <v>15.1</v>
       </c>
       <c r="H33" t="s">
-        <v>103</v>
+        <v>109</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C34" t="n">
         <v>45825.1956330087</v>
@@ -2397,15 +2514,18 @@
         <v>5.8</v>
       </c>
       <c r="H34" t="s">
-        <v>106</v>
+        <v>112</v>
+      </c>
+      <c r="I34" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C35" t="n">
         <v>46697.3597360426</v>
@@ -2423,15 +2543,18 @@
         <v>21.5</v>
       </c>
       <c r="H35" t="s">
-        <v>109</v>
+        <v>115</v>
+      </c>
+      <c r="I35" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C36" t="n">
         <v>2811.58174439039</v>
@@ -2449,15 +2572,18 @@
         <v>17.9</v>
       </c>
       <c r="H36" t="s">
-        <v>112</v>
+        <v>118</v>
+      </c>
+      <c r="I36" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C37" t="n">
         <v>59026.7073352151</v>
@@ -2475,15 +2601,18 @@
         <v>18.3</v>
       </c>
       <c r="H37" t="s">
-        <v>115</v>
+        <v>121</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C38" t="n">
         <v>55492.5655467571</v>
@@ -2501,15 +2630,18 @@
         <v>5.3</v>
       </c>
       <c r="H38" t="s">
-        <v>118</v>
+        <v>124</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C39" t="n">
         <v>16470.5835350355</v>
@@ -2527,15 +2659,18 @@
         <v>25.6</v>
       </c>
       <c r="H39" t="s">
-        <v>121</v>
+        <v>127</v>
+      </c>
+      <c r="I39" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C40" t="n">
         <v>54602.544380158</v>
@@ -2553,15 +2688,18 @@
         <v>6.7</v>
       </c>
       <c r="H40" t="s">
-        <v>124</v>
+        <v>130</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C41" t="n">
         <v>20113.3772367561</v>
@@ -2579,15 +2717,18 @@
         <v>18.7</v>
       </c>
       <c r="H41" t="s">
-        <v>127</v>
+        <v>133</v>
+      </c>
+      <c r="I41" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C42" t="n">
         <v>6498.38572689223</v>
@@ -2605,15 +2746,18 @@
         <v>22.7</v>
       </c>
       <c r="H42" t="s">
-        <v>130</v>
+        <v>136</v>
+      </c>
+      <c r="I42" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C43" t="n">
         <v>3187.01934316651</v>
@@ -2631,15 +2775,18 @@
         <v>44.4</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>139</v>
+      </c>
+      <c r="I43" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C44" t="n">
         <v>2509.82951159683</v>
@@ -2657,15 +2804,18 @@
         <v>48.4</v>
       </c>
       <c r="H44" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="I44" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C45" t="n">
         <v>36834.8710885703</v>
@@ -2683,15 +2833,18 @@
         <v>16.6</v>
       </c>
       <c r="H45" t="s">
-        <v>139</v>
+        <v>145</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C46" t="n">
         <v>10818.1717242445</v>
@@ -2709,15 +2862,18 @@
         <v>43.4</v>
       </c>
       <c r="H46" t="s">
-        <v>142</v>
+        <v>148</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C47" t="n">
         <v>69049.4365393847</v>
@@ -2733,15 +2889,18 @@
         <v>26.7</v>
       </c>
       <c r="H47" t="s">
-        <v>145</v>
+        <v>151</v>
+      </c>
+      <c r="I47" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C48" t="n">
         <v>6741.09694744697</v>
@@ -2759,15 +2918,18 @@
         <v>15.3</v>
       </c>
       <c r="H48" t="s">
-        <v>148</v>
+        <v>154</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C49" t="n">
         <v>40379.5724355217</v>
@@ -2785,15 +2947,18 @@
         <v>17.9</v>
       </c>
       <c r="H49" t="s">
-        <v>151</v>
+        <v>157</v>
+      </c>
+      <c r="I49" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C50" t="n">
         <v>3305.07595475506</v>
@@ -2811,15 +2976,18 @@
         <v>59.1</v>
       </c>
       <c r="H50" t="s">
-        <v>154</v>
+        <v>160</v>
+      </c>
+      <c r="I50" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C51" t="n">
         <v>41906.6555658699</v>
@@ -2837,15 +3005,18 @@
         <v>27.6</v>
       </c>
       <c r="H51" t="s">
-        <v>157</v>
+        <v>163</v>
+      </c>
+      <c r="I51" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C52" t="n">
         <v>14652.9282752376</v>
@@ -2863,15 +3034,18 @@
         <v>40.4</v>
       </c>
       <c r="H52" t="s">
-        <v>160</v>
+        <v>166</v>
+      </c>
+      <c r="I52" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C53" t="n">
         <v>8379.06248736089</v>
@@ -2889,15 +3063,18 @@
         <v>21.2</v>
       </c>
       <c r="H53" t="s">
-        <v>163</v>
+        <v>169</v>
+      </c>
+      <c r="I53" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C54" t="n">
         <v>126905.198534476</v>
@@ -2915,15 +3092,18 @@
         <v>11.8</v>
       </c>
       <c r="H54" t="s">
-        <v>166</v>
+        <v>172</v>
+      </c>
+      <c r="I54" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B55" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C55" t="n">
         <v>18075.0549731636</v>
@@ -2941,15 +3121,18 @@
         <v>75.1</v>
       </c>
       <c r="H55" t="s">
-        <v>169</v>
+        <v>175</v>
+      </c>
+      <c r="I55" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C56" t="n">
         <v>10861.8218937668</v>
@@ -2967,15 +3150,18 @@
         <v>51.5</v>
       </c>
       <c r="H56" t="s">
-        <v>172</v>
+        <v>178</v>
+      </c>
+      <c r="I56" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B57" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C57" t="n">
         <v>49509.1289935125</v>
@@ -2993,15 +3179,18 @@
         <v>38.4</v>
       </c>
       <c r="H57" t="s">
-        <v>175</v>
+        <v>181</v>
+      </c>
+      <c r="I57" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B58" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C58" t="n">
         <v>51864.9777354821</v>
@@ -3019,15 +3208,18 @@
         <v>8.9</v>
       </c>
       <c r="H58" t="s">
-        <v>178</v>
+        <v>184</v>
+      </c>
+      <c r="I58" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B59" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C59" t="n">
         <v>11821.5849455897</v>
@@ -3045,15 +3237,18 @@
         <v>22.9</v>
       </c>
       <c r="H59" t="s">
-        <v>181</v>
+        <v>187</v>
+      </c>
+      <c r="I59" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B60" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C60" t="n">
         <v>11003.1245205792</v>
@@ -3071,15 +3266,18 @@
         <v>63.1</v>
       </c>
       <c r="H60" t="s">
-        <v>184</v>
+        <v>190</v>
+      </c>
+      <c r="I60" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B61" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C61" t="n">
         <v>45572.7238228213</v>
@@ -3097,15 +3295,18 @@
         <v>24.8</v>
       </c>
       <c r="H61" t="s">
-        <v>187</v>
+        <v>193</v>
+      </c>
+      <c r="I61" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B62" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C62" t="n">
         <v>30809.8794265678</v>
@@ -3123,15 +3324,18 @@
         <v>21.8</v>
       </c>
       <c r="H62" t="s">
-        <v>190</v>
+        <v>196</v>
+      </c>
+      <c r="I62" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B63" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C63" t="n">
         <v>5763.91009193441</v>
@@ -3149,15 +3353,18 @@
         <v>17.2</v>
       </c>
       <c r="H63" t="s">
-        <v>193</v>
+        <v>199</v>
+      </c>
+      <c r="I63" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B64" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C64" t="n">
         <v>6132.51472138704</v>
@@ -3175,15 +3382,18 @@
         <v>18</v>
       </c>
       <c r="H64" t="s">
-        <v>196</v>
+        <v>202</v>
+      </c>
+      <c r="I64" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B65" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C65" t="n">
         <v>5349.46379391855</v>
@@ -3201,15 +3411,18 @@
         <v>40.9</v>
       </c>
       <c r="H65" t="s">
-        <v>199</v>
+        <v>205</v>
+      </c>
+      <c r="I65" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B66" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C66" t="n">
         <v>50069.8233877975</v>
@@ -3227,15 +3440,18 @@
         <v>20.4</v>
       </c>
       <c r="H66" t="s">
-        <v>202</v>
+        <v>208</v>
+      </c>
+      <c r="I66" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B67" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C67" t="n">
         <v>9384.26569540426</v>
@@ -3253,15 +3469,18 @@
         <v>29</v>
       </c>
       <c r="H67" t="s">
-        <v>205</v>
+        <v>211</v>
+      </c>
+      <c r="I67" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B68" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C68" t="n">
         <v>1724.99785498788</v>
@@ -3279,15 +3498,18 @@
         <v>52.8</v>
       </c>
       <c r="H68" t="s">
-        <v>208</v>
+        <v>214</v>
+      </c>
+      <c r="I68" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B69" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C69" t="n">
         <v>14405.4159547053</v>
@@ -3305,15 +3527,18 @@
         <v>28.6</v>
       </c>
       <c r="H69" t="s">
-        <v>211</v>
+        <v>217</v>
+      </c>
+      <c r="I69" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B70" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C70" t="n">
         <v>2694.54661561976</v>
@@ -3331,15 +3556,18 @@
         <v>37.6</v>
       </c>
       <c r="H70" t="s">
-        <v>214</v>
+        <v>220</v>
+      </c>
+      <c r="I70" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B71" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C71" t="n">
         <v>48396.6935449884</v>
@@ -3357,15 +3585,18 @@
         <v>19.7</v>
       </c>
       <c r="H71" t="s">
-        <v>217</v>
+        <v>223</v>
+      </c>
+      <c r="I71" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B72" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C72" t="n">
         <v>142213.851685246</v>
@@ -3383,15 +3614,18 @@
         <v>8.1</v>
       </c>
       <c r="H72" t="s">
-        <v>220</v>
+        <v>226</v>
+      </c>
+      <c r="I72" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B73" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C73" t="n">
         <v>39956.1904770152</v>
@@ -3409,15 +3643,18 @@
         <v>27.7</v>
       </c>
       <c r="H73" t="s">
-        <v>223</v>
+        <v>229</v>
+      </c>
+      <c r="I73" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B74" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C74" t="n">
         <v>9518.7060546875</v>
@@ -3435,15 +3672,18 @@
         <v>59.3</v>
       </c>
       <c r="H74" t="s">
-        <v>226</v>
+        <v>232</v>
+      </c>
+      <c r="I74" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B75" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C75" t="n">
         <v>15238.1482100206</v>
@@ -3461,15 +3701,18 @@
         <v>11</v>
       </c>
       <c r="H75" t="s">
-        <v>229</v>
+        <v>235</v>
+      </c>
+      <c r="I75" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B76" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C76" t="n">
         <v>1774.06870896083</v>
@@ -3487,15 +3730,18 @@
         <v>59.4</v>
       </c>
       <c r="H76" t="s">
-        <v>232</v>
+        <v>238</v>
+      </c>
+      <c r="I76" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B77" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C77" t="n">
         <v>21512.2695445099</v>
@@ -3513,15 +3759,18 @@
         <v>14.6</v>
       </c>
       <c r="H77" t="s">
-        <v>235</v>
+        <v>241</v>
+      </c>
+      <c r="I77" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B78" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C78" t="n">
         <v>20161.7509096161</v>
@@ -3539,15 +3788,18 @@
         <v>15.2</v>
       </c>
       <c r="H78" t="s">
-        <v>238</v>
+        <v>244</v>
+      </c>
+      <c r="I78" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B79" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C79" t="n">
         <v>2517.14726297399</v>
@@ -3565,15 +3817,18 @@
         <v>28.9</v>
       </c>
       <c r="H79" t="s">
-        <v>241</v>
+        <v>247</v>
+      </c>
+      <c r="I79" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B80" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C80" t="n">
         <v>55927.8593837575</v>
@@ -3591,15 +3846,18 @@
         <v>26.3</v>
       </c>
       <c r="H80" t="s">
-        <v>244</v>
+        <v>250</v>
+      </c>
+      <c r="I80" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B81" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C81" t="n">
         <v>4870.02149904408</v>
@@ -3617,15 +3875,18 @@
         <v>54.9</v>
       </c>
       <c r="H81" t="s">
-        <v>247</v>
+        <v>253</v>
+      </c>
+      <c r="I81" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B82" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C82" t="n">
         <v>26984.0688997887</v>
@@ -3643,15 +3904,18 @@
         <v>13.7</v>
       </c>
       <c r="H82" t="s">
-        <v>250</v>
+        <v>256</v>
+      </c>
+      <c r="I82" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B83" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C83" t="n">
         <v>14230.2335543192</v>
@@ -3669,15 +3933,18 @@
         <v>22.9</v>
       </c>
       <c r="H83" t="s">
-        <v>253</v>
+        <v>259</v>
+      </c>
+      <c r="I83" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B84" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C84" t="n">
         <v>1467.7697663869</v>
@@ -3695,15 +3962,18 @@
         <v>32.9</v>
       </c>
       <c r="H84" t="s">
-        <v>256</v>
+        <v>262</v>
+      </c>
+      <c r="I84" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B85" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C85" t="n">
         <v>6424.11689465832</v>
@@ -3721,15 +3991,18 @@
         <v>52.2</v>
       </c>
       <c r="H85" t="s">
-        <v>259</v>
+        <v>265</v>
+      </c>
+      <c r="I85" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B86" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C86" t="n">
         <v>1732.03034334458</v>
@@ -3747,15 +4020,18 @@
         <v>61.9</v>
       </c>
       <c r="H86" t="s">
-        <v>262</v>
+        <v>268</v>
+      </c>
+      <c r="I86" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B87" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C87" t="n">
         <v>11205.7060833117</v>
@@ -3773,13 +4049,16 @@
         <v>35.1</v>
       </c>
       <c r="H87"/>
+      <c r="I87" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B88" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C88" t="n">
         <v>1505.24267567992</v>
@@ -3797,15 +4076,18 @@
         <v>25.6</v>
       </c>
       <c r="H88" t="s">
-        <v>267</v>
+        <v>273</v>
+      </c>
+      <c r="I88" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B89" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C89" t="n">
         <v>5860.29373601491</v>
@@ -3823,15 +4105,18 @@
         <v>53.9</v>
       </c>
       <c r="H89" t="s">
-        <v>270</v>
+        <v>276</v>
+      </c>
+      <c r="I89" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B90" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C90" t="n">
         <v>6874.8118293988</v>
@@ -3849,15 +4134,18 @@
         <v>6.2</v>
       </c>
       <c r="H90" t="s">
-        <v>273</v>
+        <v>279</v>
+      </c>
+      <c r="I90" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B91" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C91" t="n">
         <v>69577.4045796776</v>
@@ -3875,15 +4163,18 @@
         <v>21.1</v>
       </c>
       <c r="H91" t="s">
-        <v>276</v>
+        <v>282</v>
+      </c>
+      <c r="I91" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B92" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C92" t="n">
         <v>114898.759885569</v>
@@ -3901,15 +4192,18 @@
         <v>19.5</v>
       </c>
       <c r="H92" t="s">
-        <v>279</v>
+        <v>285</v>
+      </c>
+      <c r="I92" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B93" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C93" t="n">
         <v>4725.0412440518</v>
@@ -3927,15 +4221,18 @@
         <v>40.2</v>
       </c>
       <c r="H93" t="s">
-        <v>282</v>
+        <v>288</v>
+      </c>
+      <c r="I93" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B94" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C94" t="n">
         <v>51966.8625777626</v>
@@ -3953,15 +4250,18 @@
         <v>22</v>
       </c>
       <c r="H94" t="s">
-        <v>285</v>
+        <v>291</v>
+      </c>
+      <c r="I94" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B95" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C95" t="n">
         <v>6437.16266275667</v>
@@ -3979,15 +4279,18 @@
         <v>53.1</v>
       </c>
       <c r="H95" t="s">
-        <v>288</v>
+        <v>294</v>
+      </c>
+      <c r="I95" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B96" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C96" t="n">
         <v>39279.6753765989</v>
@@ -4005,15 +4308,18 @@
         <v>17.8</v>
       </c>
       <c r="H96" t="s">
-        <v>291</v>
+        <v>297</v>
+      </c>
+      <c r="I96" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B97" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C97" t="n">
         <v>15047.5183272037</v>
@@ -4031,15 +4337,18 @@
         <v>12.9</v>
       </c>
       <c r="H97" t="s">
-        <v>294</v>
+        <v>300</v>
+      </c>
+      <c r="I97" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B98" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C98" t="n">
         <v>10133.1958943127</v>
@@ -4057,15 +4366,18 @@
         <v>45.1</v>
       </c>
       <c r="H98" t="s">
-        <v>297</v>
+        <v>303</v>
+      </c>
+      <c r="I98" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B99" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C99" t="n">
         <v>43268.5437126031</v>
@@ -4083,15 +4395,18 @@
         <v>12.5</v>
       </c>
       <c r="H99" t="s">
-        <v>300</v>
+        <v>306</v>
+      </c>
+      <c r="I99" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B100" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C100" t="n">
         <v>41451.6148656947</v>
@@ -4109,15 +4424,18 @@
         <v>11.4</v>
       </c>
       <c r="H100" t="s">
-        <v>303</v>
+        <v>309</v>
+      </c>
+      <c r="I100" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B101" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C101" t="n">
         <v>15977.3116536226</v>
@@ -4135,15 +4453,18 @@
         <v>29.8</v>
       </c>
       <c r="H101" t="s">
-        <v>306</v>
+        <v>312</v>
+      </c>
+      <c r="I101" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B102" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C102" t="n">
         <v>6756.78328459017</v>
@@ -4159,15 +4480,18 @@
         <v>59.4</v>
       </c>
       <c r="H102" t="s">
-        <v>309</v>
+        <v>315</v>
+      </c>
+      <c r="I102" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B103" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C103" t="n">
         <v>41887.9219020734</v>
@@ -4185,15 +4509,18 @@
         <v>22.1</v>
       </c>
       <c r="H103" t="s">
-        <v>312</v>
+        <v>318</v>
+      </c>
+      <c r="I103" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B104" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C104" t="n">
         <v>2792.42162516676</v>
@@ -4211,15 +4538,18 @@
         <v>23.5</v>
       </c>
       <c r="H104" t="s">
-        <v>315</v>
+        <v>321</v>
+      </c>
+      <c r="I104" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B105" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C105" t="n">
         <v>4208.96497879788</v>
@@ -4237,15 +4567,18 @@
         <v>3.6</v>
       </c>
       <c r="H105" t="s">
-        <v>318</v>
+        <v>324</v>
+      </c>
+      <c r="I105" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B106" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C106" t="n">
         <v>127564.556573776</v>
@@ -4263,15 +4596,18 @@
         <v>49.2</v>
       </c>
       <c r="H106" t="s">
-        <v>321</v>
+        <v>327</v>
+      </c>
+      <c r="I106" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B107" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C107" t="n">
         <v>1931.06733078033</v>
@@ -4289,15 +4625,18 @@
         <v>40.9</v>
       </c>
       <c r="H107" t="s">
-        <v>324</v>
+        <v>330</v>
+      </c>
+      <c r="I107" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B108" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C108" t="n">
         <v>11096.2132011865</v>
@@ -4315,15 +4654,18 @@
         <v>17.8</v>
       </c>
       <c r="H108" t="s">
-        <v>327</v>
+        <v>333</v>
+      </c>
+      <c r="I108" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B109" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C109" t="n">
         <v>23911.2012200009</v>
@@ -4341,15 +4683,18 @@
         <v>18</v>
       </c>
       <c r="H109" t="s">
-        <v>330</v>
+        <v>336</v>
+      </c>
+      <c r="I109" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B110" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C110" t="n">
         <v>37459.4738440688</v>
@@ -4367,15 +4712,18 @@
         <v>24.4</v>
       </c>
       <c r="H110" t="s">
-        <v>333</v>
+        <v>339</v>
+      </c>
+      <c r="I110" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B111" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C111" t="n">
         <v>50031.6561840507</v>
@@ -4393,15 +4741,18 @@
         <v>13.2</v>
       </c>
       <c r="H111" t="s">
-        <v>336</v>
+        <v>342</v>
+      </c>
+      <c r="I111" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B112" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C112" t="n">
         <v>64578.3963325427</v>
@@ -4419,15 +4770,18 @@
         <v>16.2</v>
       </c>
       <c r="H112" t="s">
-        <v>339</v>
+        <v>345</v>
+      </c>
+      <c r="I112" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B113" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C113" t="n">
         <v>1668.02296131439</v>
@@ -4445,15 +4799,18 @@
         <v>27.2</v>
       </c>
       <c r="H113" t="s">
-        <v>342</v>
+        <v>348</v>
+      </c>
+      <c r="I113" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B114" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C114" t="n">
         <v>2607.92768076896</v>
@@ -4471,15 +4828,18 @@
         <v>62</v>
       </c>
       <c r="H114" t="s">
-        <v>345</v>
+        <v>351</v>
+      </c>
+      <c r="I114" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B115" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C115" t="n">
         <v>20671.6849201656</v>
@@ -4497,15 +4857,18 @@
         <v>56.8</v>
       </c>
       <c r="H115" t="s">
-        <v>348</v>
+        <v>354</v>
+      </c>
+      <c r="I115" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B116" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C116" t="n">
         <v>4885.12570059687</v>
@@ -4523,15 +4886,18 @@
         <v>25.1</v>
       </c>
       <c r="H116" t="s">
-        <v>351</v>
+        <v>357</v>
+      </c>
+      <c r="I116" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B117" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C117" t="n">
         <v>27778.1806029423</v>
@@ -4549,15 +4915,18 @@
         <v>28.5</v>
       </c>
       <c r="H117" t="s">
-        <v>354</v>
+        <v>360</v>
+      </c>
+      <c r="I117" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B118" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C118" t="n">
         <v>12489.7180681742</v>
@@ -4575,15 +4944,18 @@
         <v>52.8</v>
       </c>
       <c r="H118" t="s">
-        <v>357</v>
+        <v>363</v>
+      </c>
+      <c r="I118" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B119" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C119" t="n">
         <v>37273.6997606048</v>
@@ -4601,15 +4973,18 @@
         <v>20</v>
       </c>
       <c r="H119" t="s">
-        <v>360</v>
+        <v>366</v>
+      </c>
+      <c r="I119" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B120" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C120" t="n">
         <v>3096.88452148438</v>
@@ -4627,15 +5002,18 @@
         <v>35.2</v>
       </c>
       <c r="H120" t="s">
-        <v>363</v>
+        <v>369</v>
+      </c>
+      <c r="I120" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B121" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C121" t="n">
         <v>2693.81528630238</v>
@@ -4653,15 +5031,18 @@
         <v>26.6</v>
       </c>
       <c r="H121" t="s">
-        <v>366</v>
+        <v>372</v>
+      </c>
+      <c r="I121" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B122" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C122" t="n">
         <v>12671.2392578125</v>
@@ -4679,15 +5060,18 @@
         <v>28.7</v>
       </c>
       <c r="H122" t="s">
-        <v>369</v>
+        <v>375</v>
+      </c>
+      <c r="I122" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B123" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C123" t="n">
         <v>28841.9857002361</v>
@@ -4705,15 +5089,18 @@
         <v>22.8</v>
       </c>
       <c r="H123" t="s">
-        <v>372</v>
+        <v>378</v>
+      </c>
+      <c r="I123" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B124" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C124" t="n">
         <v>76398.5917422057</v>
@@ -4731,15 +5118,18 @@
         <v>22.9</v>
       </c>
       <c r="H124" t="s">
-        <v>375</v>
+        <v>381</v>
+      </c>
+      <c r="I124" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B125" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C125" t="n">
         <v>9532.51186508938</v>
@@ -4757,15 +5147,18 @@
         <v>23.5</v>
       </c>
       <c r="H125" t="s">
-        <v>378</v>
+        <v>384</v>
+      </c>
+      <c r="I125" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B126" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C126" t="n">
         <v>13456.5514254011</v>
@@ -4783,15 +5176,18 @@
         <v>13.8</v>
       </c>
       <c r="H126" t="s">
-        <v>381</v>
+        <v>387</v>
+      </c>
+      <c r="I126" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B127" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C127" t="n">
         <v>15904.848362637</v>
@@ -4809,15 +5205,18 @@
         <v>21</v>
       </c>
       <c r="H127" t="s">
-        <v>384</v>
+        <v>390</v>
+      </c>
+      <c r="I127" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B128" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C128" t="n">
         <v>3894.31025862346</v>
@@ -4835,15 +5234,18 @@
         <v>41.8</v>
       </c>
       <c r="H128" t="s">
-        <v>387</v>
+        <v>393</v>
+      </c>
+      <c r="I128" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B129" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C129" t="n">
         <v>2530.64598671745</v>
@@ -4861,7 +5263,10 @@
         <v>30.9</v>
       </c>
       <c r="H129" t="s">
-        <v>390</v>
+        <v>396</v>
+      </c>
+      <c r="I129" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases de Datos/data_final.xlsx
+++ b/Bases de Datos/data_final.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -461,15 +461,6 @@
     <t xml:space="preserve">GT</t>
   </si>
   <si>
-    <t xml:space="preserve">HKG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hong Kong, Región Administrativa Especial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HK</t>
-  </si>
-  <si>
     <t xml:space="preserve">HND</t>
   </si>
   <si>
@@ -951,15 +942,6 @@
   </si>
   <si>
     <t xml:space="preserve">PY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ribera Occidental y Gaza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS</t>
   </si>
   <si>
     <t xml:space="preserve">ROU</t>
@@ -2876,23 +2858,25 @@
         <v>150</v>
       </c>
       <c r="C47" t="n">
-        <v>69049.4365393847</v>
+        <v>6741.09694744697</v>
       </c>
       <c r="D47" t="n">
-        <v>7346100</v>
+        <v>10432860</v>
       </c>
       <c r="E47" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="F47"/>
+        <v>6.2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>21.09375</v>
+      </c>
       <c r="G47" t="n">
-        <v>26.7</v>
+        <v>15.3</v>
       </c>
       <c r="H47" t="s">
         <v>151</v>
       </c>
       <c r="I47" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -2903,25 +2887,25 @@
         <v>153</v>
       </c>
       <c r="C48" t="n">
-        <v>6741.09694744697</v>
+        <v>40379.5724355217</v>
       </c>
       <c r="D48" t="n">
-        <v>10432860</v>
+        <v>3854000</v>
       </c>
       <c r="E48" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="F48" t="n">
-        <v>21.09375</v>
+        <v>20.5298013245033</v>
       </c>
       <c r="G48" t="n">
-        <v>15.3</v>
+        <v>17.9</v>
       </c>
       <c r="H48" t="s">
         <v>154</v>
       </c>
       <c r="I48" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -2932,25 +2916,25 @@
         <v>156</v>
       </c>
       <c r="C49" t="n">
-        <v>40379.5724355217</v>
+        <v>3305.07595475506</v>
       </c>
       <c r="D49" t="n">
-        <v>3854000</v>
+        <v>11584996</v>
       </c>
       <c r="E49" t="n">
-        <v>4.4</v>
+        <v>23</v>
       </c>
       <c r="F49" t="n">
-        <v>20.5298013245033</v>
+        <v>2.54237288135593</v>
       </c>
       <c r="G49" t="n">
-        <v>17.9</v>
+        <v>59.1</v>
       </c>
       <c r="H49" t="s">
         <v>157</v>
       </c>
       <c r="I49" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
@@ -2961,25 +2945,25 @@
         <v>159</v>
       </c>
       <c r="C50" t="n">
-        <v>3305.07595475506</v>
+        <v>41906.6555658699</v>
       </c>
       <c r="D50" t="n">
-        <v>11584996</v>
+        <v>9683505</v>
       </c>
       <c r="E50" t="n">
-        <v>23</v>
+        <v>11.5</v>
       </c>
       <c r="F50" t="n">
-        <v>2.54237288135593</v>
+        <v>12.5628140703518</v>
       </c>
       <c r="G50" t="n">
-        <v>59.1</v>
+        <v>27.6</v>
       </c>
       <c r="H50" t="s">
         <v>160</v>
       </c>
       <c r="I50" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
@@ -2990,25 +2974,25 @@
         <v>162</v>
       </c>
       <c r="C51" t="n">
-        <v>41906.6555658699</v>
+        <v>14652.9282752376</v>
       </c>
       <c r="D51" t="n">
-        <v>9683505</v>
+        <v>275501339</v>
       </c>
       <c r="E51" t="n">
-        <v>11.5</v>
+        <v>20.2</v>
       </c>
       <c r="F51" t="n">
-        <v>12.5628140703518</v>
+        <v>17.3913043478261</v>
       </c>
       <c r="G51" t="n">
-        <v>27.6</v>
+        <v>40.4</v>
       </c>
       <c r="H51" t="s">
         <v>163</v>
       </c>
       <c r="I51" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
@@ -3019,19 +3003,19 @@
         <v>165</v>
       </c>
       <c r="C52" t="n">
-        <v>14652.9282752376</v>
+        <v>8379.06248736089</v>
       </c>
       <c r="D52" t="n">
-        <v>275501339</v>
+        <v>1417173173</v>
       </c>
       <c r="E52" t="n">
-        <v>20.2</v>
+        <v>41</v>
       </c>
       <c r="F52" t="n">
-        <v>17.3913043478261</v>
+        <v>14.3911439114391</v>
       </c>
       <c r="G52" t="n">
-        <v>40.4</v>
+        <v>21.2</v>
       </c>
       <c r="H52" t="s">
         <v>166</v>
@@ -3048,25 +3032,25 @@
         <v>168</v>
       </c>
       <c r="C53" t="n">
-        <v>8379.06248736089</v>
+        <v>126905.198534476</v>
       </c>
       <c r="D53" t="n">
-        <v>1417173173</v>
+        <v>5086988</v>
       </c>
       <c r="E53" t="n">
-        <v>41</v>
+        <v>1.4</v>
       </c>
       <c r="F53" t="n">
-        <v>14.3911439114391</v>
+        <v>22.1518987341772</v>
       </c>
       <c r="G53" t="n">
-        <v>21.2</v>
+        <v>11.8</v>
       </c>
       <c r="H53" t="s">
         <v>169</v>
       </c>
       <c r="I53" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
@@ -3077,25 +3061,25 @@
         <v>171</v>
       </c>
       <c r="C54" t="n">
-        <v>126905.198534476</v>
+        <v>18075.0549731636</v>
       </c>
       <c r="D54" t="n">
-        <v>5086988</v>
+        <v>88550570</v>
       </c>
       <c r="E54" t="n">
-        <v>1.4</v>
+        <v>9.8</v>
       </c>
       <c r="F54" t="n">
-        <v>22.1518987341772</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="G54" t="n">
-        <v>11.8</v>
+        <v>75.1</v>
       </c>
       <c r="H54" t="s">
         <v>172</v>
       </c>
       <c r="I54" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
@@ -3106,19 +3090,19 @@
         <v>174</v>
       </c>
       <c r="C55" t="n">
-        <v>18075.0549731636</v>
+        <v>10861.8218937668</v>
       </c>
       <c r="D55" t="n">
-        <v>88550570</v>
+        <v>44496122</v>
       </c>
       <c r="E55" t="n">
-        <v>9.8</v>
+        <v>31</v>
       </c>
       <c r="F55" t="n">
-        <v>5.88235294117647</v>
+        <v>25.2279635258359</v>
       </c>
       <c r="G55" t="n">
-        <v>75.1</v>
+        <v>51.5</v>
       </c>
       <c r="H55" t="s">
         <v>175</v>
@@ -3135,19 +3119,19 @@
         <v>177</v>
       </c>
       <c r="C56" t="n">
-        <v>10861.8218937668</v>
+        <v>49509.1289935125</v>
       </c>
       <c r="D56" t="n">
-        <v>44496122</v>
+        <v>9550600</v>
       </c>
       <c r="E56" t="n">
-        <v>31</v>
+        <v>14.9</v>
       </c>
       <c r="F56" t="n">
-        <v>25.2279635258359</v>
+        <v>23.3333333333333</v>
       </c>
       <c r="G56" t="n">
-        <v>51.5</v>
+        <v>38.4</v>
       </c>
       <c r="H56" t="s">
         <v>178</v>
@@ -3164,25 +3148,25 @@
         <v>180</v>
       </c>
       <c r="C57" t="n">
-        <v>49509.1289935125</v>
+        <v>51864.9777354821</v>
       </c>
       <c r="D57" t="n">
-        <v>9550600</v>
+        <v>58856847</v>
       </c>
       <c r="E57" t="n">
-        <v>14.9</v>
+        <v>6.1</v>
       </c>
       <c r="F57" t="n">
-        <v>23.3333333333333</v>
+        <v>35.7142857142857</v>
       </c>
       <c r="G57" t="n">
-        <v>38.4</v>
+        <v>8.9</v>
       </c>
       <c r="H57" t="s">
         <v>181</v>
       </c>
       <c r="I57" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -3193,25 +3177,25 @@
         <v>183</v>
       </c>
       <c r="C58" t="n">
-        <v>51864.9777354821</v>
+        <v>11821.5849455897</v>
       </c>
       <c r="D58" t="n">
-        <v>58856847</v>
+        <v>2827377</v>
       </c>
       <c r="E58" t="n">
-        <v>6.1</v>
+        <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>35.7142857142857</v>
+        <v>17.4603174603175</v>
       </c>
       <c r="G58" t="n">
-        <v>8.9</v>
+        <v>22.9</v>
       </c>
       <c r="H58" t="s">
         <v>184</v>
       </c>
       <c r="I58" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
@@ -3222,25 +3206,25 @@
         <v>186</v>
       </c>
       <c r="C59" t="n">
-        <v>11821.5849455897</v>
+        <v>11003.1245205792</v>
       </c>
       <c r="D59" t="n">
-        <v>2827377</v>
+        <v>11285869</v>
       </c>
       <c r="E59" t="n">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F59" t="n">
-        <v>17.4603174603175</v>
+        <v>15.3846153846154</v>
       </c>
       <c r="G59" t="n">
-        <v>22.9</v>
+        <v>63.1</v>
       </c>
       <c r="H59" t="s">
         <v>187</v>
       </c>
       <c r="I59" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
@@ -3251,19 +3235,19 @@
         <v>189</v>
       </c>
       <c r="C60" t="n">
-        <v>11003.1245205792</v>
+        <v>45572.7238228213</v>
       </c>
       <c r="D60" t="n">
-        <v>11285869</v>
+        <v>125124989</v>
       </c>
       <c r="E60" t="n">
-        <v>63</v>
+        <v>7.8</v>
       </c>
       <c r="F60" t="n">
-        <v>15.3846153846154</v>
+        <v>10.1075268817204</v>
       </c>
       <c r="G60" t="n">
-        <v>63.1</v>
+        <v>24.8</v>
       </c>
       <c r="H60" t="s">
         <v>190</v>
@@ -3280,19 +3264,19 @@
         <v>192</v>
       </c>
       <c r="C61" t="n">
-        <v>45572.7238228213</v>
+        <v>30809.8794265678</v>
       </c>
       <c r="D61" t="n">
-        <v>125124989</v>
+        <v>19621972</v>
       </c>
       <c r="E61" t="n">
-        <v>7.8</v>
+        <v>37.4</v>
       </c>
       <c r="F61" t="n">
-        <v>10.1075268817204</v>
+        <v>27.1028037383178</v>
       </c>
       <c r="G61" t="n">
-        <v>24.8</v>
+        <v>21.8</v>
       </c>
       <c r="H61" t="s">
         <v>193</v>
@@ -3309,25 +3293,25 @@
         <v>195</v>
       </c>
       <c r="C62" t="n">
-        <v>30809.8794265678</v>
+        <v>5763.91009193441</v>
       </c>
       <c r="D62" t="n">
-        <v>19621972</v>
+        <v>54027487</v>
       </c>
       <c r="E62" t="n">
-        <v>37.4</v>
+        <v>50.4</v>
       </c>
       <c r="F62" t="n">
-        <v>27.1028037383178</v>
+        <v>21.7765042979943</v>
       </c>
       <c r="G62" t="n">
-        <v>21.8</v>
+        <v>17.2</v>
       </c>
       <c r="H62" t="s">
         <v>196</v>
       </c>
       <c r="I62" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63">
@@ -3338,25 +3322,25 @@
         <v>198</v>
       </c>
       <c r="C63" t="n">
-        <v>5763.91009193441</v>
+        <v>6132.51472138704</v>
       </c>
       <c r="D63" t="n">
-        <v>54027487</v>
+        <v>6803300</v>
       </c>
       <c r="E63" t="n">
-        <v>50.4</v>
+        <v>19.3</v>
       </c>
       <c r="F63" t="n">
-        <v>21.7765042979943</v>
+        <v>19.1666666666667</v>
       </c>
       <c r="G63" t="n">
-        <v>17.2</v>
+        <v>18</v>
       </c>
       <c r="H63" t="s">
         <v>199</v>
       </c>
       <c r="I63" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
@@ -3367,19 +3351,19 @@
         <v>201</v>
       </c>
       <c r="C64" t="n">
-        <v>6132.51472138704</v>
+        <v>5349.46379391855</v>
       </c>
       <c r="D64" t="n">
-        <v>6803300</v>
+        <v>16767842</v>
       </c>
       <c r="E64" t="n">
-        <v>19.3</v>
+        <v>46</v>
       </c>
       <c r="F64" t="n">
-        <v>19.1666666666667</v>
+        <v>20</v>
       </c>
       <c r="G64" t="n">
-        <v>18</v>
+        <v>40.9</v>
       </c>
       <c r="H64" t="s">
         <v>202</v>
@@ -3396,19 +3380,19 @@
         <v>204</v>
       </c>
       <c r="C65" t="n">
-        <v>5349.46379391855</v>
+        <v>50069.8233877975</v>
       </c>
       <c r="D65" t="n">
-        <v>16767842</v>
+        <v>51628117</v>
       </c>
       <c r="E65" t="n">
-        <v>46</v>
+        <v>41.1</v>
       </c>
       <c r="F65" t="n">
-        <v>20</v>
+        <v>16.6666666666667</v>
       </c>
       <c r="G65" t="n">
-        <v>40.9</v>
+        <v>20.4</v>
       </c>
       <c r="H65" t="s">
         <v>205</v>
@@ -3425,19 +3409,19 @@
         <v>207</v>
       </c>
       <c r="C66" t="n">
-        <v>50069.8233877975</v>
+        <v>9384.26569540426</v>
       </c>
       <c r="D66" t="n">
-        <v>51628117</v>
+        <v>7529475</v>
       </c>
       <c r="E66" t="n">
-        <v>41.1</v>
+        <v>30</v>
       </c>
       <c r="F66" t="n">
-        <v>16.6666666666667</v>
+        <v>27.5167785234899</v>
       </c>
       <c r="G66" t="n">
-        <v>20.4</v>
+        <v>29</v>
       </c>
       <c r="H66" t="s">
         <v>208</v>
@@ -3454,25 +3438,25 @@
         <v>210</v>
       </c>
       <c r="C67" t="n">
-        <v>9384.26569540426</v>
+        <v>1724.99785498788</v>
       </c>
       <c r="D67" t="n">
-        <v>7529475</v>
+        <v>5302681</v>
       </c>
       <c r="E67" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F67" t="n">
-        <v>27.5167785234899</v>
+        <v>12.3287671232877</v>
       </c>
       <c r="G67" t="n">
-        <v>29</v>
+        <v>52.8</v>
       </c>
       <c r="H67" t="s">
         <v>211</v>
       </c>
       <c r="I67" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68">
@@ -3483,25 +3467,25 @@
         <v>213</v>
       </c>
       <c r="C68" t="n">
-        <v>1724.99785498788</v>
+        <v>14405.4159547053</v>
       </c>
       <c r="D68" t="n">
-        <v>5302681</v>
+        <v>22181000</v>
       </c>
       <c r="E68" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F68" t="n">
-        <v>12.3287671232877</v>
+        <v>5.33333333333333</v>
       </c>
       <c r="G68" t="n">
-        <v>52.8</v>
+        <v>28.6</v>
       </c>
       <c r="H68" t="s">
         <v>214</v>
       </c>
       <c r="I68" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -3512,25 +3496,25 @@
         <v>216</v>
       </c>
       <c r="C69" t="n">
-        <v>14405.4159547053</v>
+        <v>2694.54661561976</v>
       </c>
       <c r="D69" t="n">
-        <v>22181000</v>
+        <v>2305825</v>
       </c>
       <c r="E69" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F69" t="n">
-        <v>5.33333333333333</v>
+        <v>23.3333333333333</v>
       </c>
       <c r="G69" t="n">
-        <v>28.6</v>
+        <v>37.6</v>
       </c>
       <c r="H69" t="s">
         <v>217</v>
       </c>
       <c r="I69" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70">
@@ -3541,25 +3525,25 @@
         <v>219</v>
       </c>
       <c r="C70" t="n">
-        <v>2694.54661561976</v>
+        <v>48396.6935449884</v>
       </c>
       <c r="D70" t="n">
-        <v>2305825</v>
+        <v>2833000</v>
       </c>
       <c r="E70" t="n">
-        <v>30</v>
+        <v>1.4</v>
       </c>
       <c r="F70" t="n">
-        <v>23.3333333333333</v>
+        <v>21.2765957446809</v>
       </c>
       <c r="G70" t="n">
-        <v>37.6</v>
+        <v>19.7</v>
       </c>
       <c r="H70" t="s">
         <v>220</v>
       </c>
       <c r="I70" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
@@ -3570,19 +3554,19 @@
         <v>222</v>
       </c>
       <c r="C71" t="n">
-        <v>48396.6935449884</v>
+        <v>142213.851685246</v>
       </c>
       <c r="D71" t="n">
-        <v>2833000</v>
+        <v>650774</v>
       </c>
       <c r="E71" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="F71" t="n">
-        <v>21.2765957446809</v>
+        <v>25</v>
       </c>
       <c r="G71" t="n">
-        <v>19.7</v>
+        <v>8.1</v>
       </c>
       <c r="H71" t="s">
         <v>223</v>
@@ -3599,19 +3583,19 @@
         <v>225</v>
       </c>
       <c r="C72" t="n">
-        <v>142213.851685246</v>
+        <v>39956.1904770152</v>
       </c>
       <c r="D72" t="n">
-        <v>650774</v>
+        <v>1883379</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="F72" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G72" t="n">
-        <v>8.1</v>
+        <v>27.7</v>
       </c>
       <c r="H72" t="s">
         <v>226</v>
@@ -3628,25 +3612,25 @@
         <v>228</v>
       </c>
       <c r="C73" t="n">
-        <v>39956.1904770152</v>
+        <v>9518.7060546875</v>
       </c>
       <c r="D73" t="n">
-        <v>1883379</v>
+        <v>37457971</v>
       </c>
       <c r="E73" t="n">
-        <v>1.9</v>
+        <v>52.3</v>
       </c>
       <c r="F73" t="n">
-        <v>30</v>
+        <v>20.5063291139241</v>
       </c>
       <c r="G73" t="n">
-        <v>27.7</v>
+        <v>59.3</v>
       </c>
       <c r="H73" t="s">
         <v>229</v>
       </c>
       <c r="I73" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74">
@@ -3657,25 +3641,25 @@
         <v>231</v>
       </c>
       <c r="C74" t="n">
-        <v>9518.7060546875</v>
+        <v>15238.1482100206</v>
       </c>
       <c r="D74" t="n">
-        <v>37457971</v>
+        <v>2592477</v>
       </c>
       <c r="E74" t="n">
-        <v>52.3</v>
+        <v>13</v>
       </c>
       <c r="F74" t="n">
-        <v>20.5063291139241</v>
+        <v>25.7425742574257</v>
       </c>
       <c r="G74" t="n">
-        <v>59.3</v>
+        <v>11</v>
       </c>
       <c r="H74" t="s">
         <v>232</v>
       </c>
       <c r="I74" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75">
@@ -3686,25 +3670,25 @@
         <v>234</v>
       </c>
       <c r="C75" t="n">
-        <v>15238.1482100206</v>
+        <v>1774.06870896083</v>
       </c>
       <c r="D75" t="n">
-        <v>2592477</v>
+        <v>29611714</v>
       </c>
       <c r="E75" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F75" t="n">
-        <v>25.7425742574257</v>
+        <v>15.8940397350993</v>
       </c>
       <c r="G75" t="n">
-        <v>11</v>
+        <v>59.4</v>
       </c>
       <c r="H75" t="s">
         <v>235</v>
       </c>
       <c r="I75" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76">
@@ -3715,25 +3699,25 @@
         <v>237</v>
       </c>
       <c r="C76" t="n">
-        <v>1774.06870896083</v>
+        <v>21512.2695445099</v>
       </c>
       <c r="D76" t="n">
-        <v>29611714</v>
+        <v>127504125</v>
       </c>
       <c r="E76" t="n">
-        <v>41</v>
+        <v>31.8</v>
       </c>
       <c r="F76" t="n">
-        <v>15.8940397350993</v>
+        <v>48.2</v>
       </c>
       <c r="G76" t="n">
-        <v>59.4</v>
+        <v>14.6</v>
       </c>
       <c r="H76" t="s">
         <v>238</v>
       </c>
       <c r="I76" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -3744,25 +3728,25 @@
         <v>240</v>
       </c>
       <c r="C77" t="n">
-        <v>21512.2695445099</v>
+        <v>20161.7509096161</v>
       </c>
       <c r="D77" t="n">
-        <v>127504125</v>
+        <v>2057679</v>
       </c>
       <c r="E77" t="n">
-        <v>31.8</v>
+        <v>11</v>
       </c>
       <c r="F77" t="n">
-        <v>48.2</v>
+        <v>39.1666666666667</v>
       </c>
       <c r="G77" t="n">
-        <v>14.6</v>
+        <v>15.2</v>
       </c>
       <c r="H77" t="s">
         <v>241</v>
       </c>
       <c r="I77" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78">
@@ -3773,25 +3757,25 @@
         <v>243</v>
       </c>
       <c r="C78" t="n">
-        <v>20161.7509096161</v>
+        <v>2517.14726297399</v>
       </c>
       <c r="D78" t="n">
-        <v>2057679</v>
+        <v>22593590</v>
       </c>
       <c r="E78" t="n">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F78" t="n">
-        <v>39.1666666666667</v>
+        <v>9.52380952380952</v>
       </c>
       <c r="G78" t="n">
-        <v>15.2</v>
+        <v>28.9</v>
       </c>
       <c r="H78" t="s">
         <v>244</v>
       </c>
       <c r="I78" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79">
@@ -3802,25 +3786,25 @@
         <v>246</v>
       </c>
       <c r="C79" t="n">
-        <v>2517.14726297399</v>
+        <v>55927.8593837575</v>
       </c>
       <c r="D79" t="n">
-        <v>22593590</v>
+        <v>523417</v>
       </c>
       <c r="E79" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>9.52380952380952</v>
+        <v>14.9253731343284</v>
       </c>
       <c r="G79" t="n">
-        <v>28.9</v>
+        <v>26.3</v>
       </c>
       <c r="H79" t="s">
         <v>247</v>
       </c>
       <c r="I79" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
@@ -3831,25 +3815,25 @@
         <v>249</v>
       </c>
       <c r="C80" t="n">
-        <v>55927.8593837575</v>
+        <v>4870.02149904408</v>
       </c>
       <c r="D80" t="n">
-        <v>523417</v>
+        <v>54179306</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F80" t="n">
-        <v>14.9253731343284</v>
+        <v>11.3163972286374</v>
       </c>
       <c r="G80" t="n">
-        <v>26.3</v>
+        <v>54.9</v>
       </c>
       <c r="H80" t="s">
         <v>250</v>
       </c>
       <c r="I80" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81">
@@ -3860,25 +3844,25 @@
         <v>252</v>
       </c>
       <c r="C81" t="n">
-        <v>4870.02149904408</v>
+        <v>26984.0688997887</v>
       </c>
       <c r="D81" t="n">
-        <v>54179306</v>
+        <v>616159</v>
       </c>
       <c r="E81" t="n">
-        <v>14.4</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>11.3163972286374</v>
+        <v>28.3950617283951</v>
       </c>
       <c r="G81" t="n">
-        <v>54.9</v>
+        <v>13.7</v>
       </c>
       <c r="H81" t="s">
         <v>253</v>
       </c>
       <c r="I81" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82">
@@ -3889,25 +3873,25 @@
         <v>255</v>
       </c>
       <c r="C82" t="n">
-        <v>26984.0688997887</v>
+        <v>14230.2335543192</v>
       </c>
       <c r="D82" t="n">
-        <v>616159</v>
+        <v>3398366</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>62.9</v>
       </c>
       <c r="F82" t="n">
-        <v>28.3950617283951</v>
+        <v>17.3333333333333</v>
       </c>
       <c r="G82" t="n">
-        <v>13.7</v>
+        <v>22.9</v>
       </c>
       <c r="H82" t="s">
         <v>256</v>
       </c>
       <c r="I82" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
@@ -3918,25 +3902,25 @@
         <v>258</v>
       </c>
       <c r="C83" t="n">
-        <v>14230.2335543192</v>
+        <v>1467.7697663869</v>
       </c>
       <c r="D83" t="n">
-        <v>3398366</v>
+        <v>32969518</v>
       </c>
       <c r="E83" t="n">
-        <v>62.9</v>
+        <v>14</v>
       </c>
       <c r="F83" t="n">
-        <v>17.3333333333333</v>
+        <v>41.2</v>
       </c>
       <c r="G83" t="n">
-        <v>22.9</v>
+        <v>32.9</v>
       </c>
       <c r="H83" t="s">
         <v>259</v>
       </c>
       <c r="I83" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84">
@@ -3947,19 +3931,19 @@
         <v>261</v>
       </c>
       <c r="C84" t="n">
-        <v>1467.7697663869</v>
+        <v>6424.11689465832</v>
       </c>
       <c r="D84" t="n">
-        <v>32969518</v>
+        <v>4736139</v>
       </c>
       <c r="E84" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F84" t="n">
-        <v>41.2</v>
+        <v>20.2614379084967</v>
       </c>
       <c r="G84" t="n">
-        <v>32.9</v>
+        <v>52.2</v>
       </c>
       <c r="H84" t="s">
         <v>262</v>
@@ -3976,19 +3960,19 @@
         <v>264</v>
       </c>
       <c r="C85" t="n">
-        <v>6424.11689465832</v>
+        <v>1732.03034334458</v>
       </c>
       <c r="D85" t="n">
-        <v>4736139</v>
+        <v>20405317</v>
       </c>
       <c r="E85" t="n">
-        <v>26</v>
+        <v>18.9</v>
       </c>
       <c r="F85" t="n">
-        <v>20.2614379084967</v>
+        <v>22.9166666666667</v>
       </c>
       <c r="G85" t="n">
-        <v>52.2</v>
+        <v>61.9</v>
       </c>
       <c r="H85" t="s">
         <v>265</v>
@@ -4005,50 +3989,50 @@
         <v>267</v>
       </c>
       <c r="C86" t="n">
-        <v>1732.03034334458</v>
+        <v>11205.7060833117</v>
       </c>
       <c r="D86" t="n">
-        <v>20405317</v>
+        <v>2567012</v>
       </c>
       <c r="E86" t="n">
-        <v>18.9</v>
+        <v>28</v>
       </c>
       <c r="F86" t="n">
-        <v>22.9166666666667</v>
+        <v>42.7083333333333</v>
       </c>
       <c r="G86" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="H86" t="s">
-        <v>268</v>
-      </c>
+        <v>35.1</v>
+      </c>
+      <c r="H86"/>
       <c r="I86" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>268</v>
+      </c>
+      <c r="B87" t="s">
         <v>269</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="n">
+        <v>1505.24267567992</v>
+      </c>
+      <c r="D87" t="n">
+        <v>26207977</v>
+      </c>
+      <c r="E87" t="n">
+        <v>54</v>
+      </c>
+      <c r="F87" t="n">
+        <v>16.9590643274854</v>
+      </c>
+      <c r="G87" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H87" t="s">
         <v>270</v>
       </c>
-      <c r="C87" t="n">
-        <v>11205.7060833117</v>
-      </c>
-      <c r="D87" t="n">
-        <v>2567012</v>
-      </c>
-      <c r="E87" t="n">
-        <v>28</v>
-      </c>
-      <c r="F87" t="n">
-        <v>42.7083333333333</v>
-      </c>
-      <c r="G87" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="H87"/>
       <c r="I87" t="s">
         <v>37</v>
       </c>
@@ -4061,19 +4045,19 @@
         <v>272</v>
       </c>
       <c r="C88" t="n">
-        <v>1505.24267567992</v>
+        <v>5860.29373601491</v>
       </c>
       <c r="D88" t="n">
-        <v>26207977</v>
+        <v>218541212</v>
       </c>
       <c r="E88" t="n">
-        <v>54</v>
+        <v>29.3</v>
       </c>
       <c r="F88" t="n">
-        <v>16.9590643274854</v>
+        <v>3.38028169014084</v>
       </c>
       <c r="G88" t="n">
-        <v>25.6</v>
+        <v>53.9</v>
       </c>
       <c r="H88" t="s">
         <v>273</v>
@@ -4090,25 +4074,25 @@
         <v>275</v>
       </c>
       <c r="C89" t="n">
-        <v>5860.29373601491</v>
+        <v>6874.8118293988</v>
       </c>
       <c r="D89" t="n">
-        <v>218541212</v>
+        <v>6948392</v>
       </c>
       <c r="E89" t="n">
-        <v>29.3</v>
+        <v>12</v>
       </c>
       <c r="F89" t="n">
-        <v>3.38028169014084</v>
+        <v>44.5652173913043</v>
       </c>
       <c r="G89" t="n">
-        <v>53.9</v>
+        <v>6.2</v>
       </c>
       <c r="H89" t="s">
         <v>276</v>
       </c>
       <c r="I89" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
@@ -4119,25 +4103,25 @@
         <v>278</v>
       </c>
       <c r="C90" t="n">
-        <v>6874.8118293988</v>
+        <v>69577.4045796776</v>
       </c>
       <c r="D90" t="n">
-        <v>6948392</v>
+        <v>17703090</v>
       </c>
       <c r="E90" t="n">
-        <v>12</v>
+        <v>7.1</v>
       </c>
       <c r="F90" t="n">
-        <v>44.5652173913043</v>
+        <v>31.3333333333333</v>
       </c>
       <c r="G90" t="n">
-        <v>6.2</v>
+        <v>21.1</v>
       </c>
       <c r="H90" t="s">
         <v>279</v>
       </c>
       <c r="I90" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91">
@@ -4148,19 +4132,19 @@
         <v>281</v>
       </c>
       <c r="C91" t="n">
-        <v>69577.4045796776</v>
+        <v>114898.759885569</v>
       </c>
       <c r="D91" t="n">
-        <v>17703090</v>
+        <v>5457127</v>
       </c>
       <c r="E91" t="n">
-        <v>7.1</v>
+        <v>11.1</v>
       </c>
       <c r="F91" t="n">
-        <v>31.3333333333333</v>
+        <v>40.8284023668639</v>
       </c>
       <c r="G91" t="n">
-        <v>21.1</v>
+        <v>19.5</v>
       </c>
       <c r="H91" t="s">
         <v>282</v>
@@ -4177,25 +4161,25 @@
         <v>284</v>
       </c>
       <c r="C92" t="n">
-        <v>114898.759885569</v>
+        <v>4725.0412440518</v>
       </c>
       <c r="D92" t="n">
-        <v>5457127</v>
+        <v>30547580</v>
       </c>
       <c r="E92" t="n">
-        <v>11.1</v>
+        <v>22</v>
       </c>
       <c r="F92" t="n">
-        <v>40.8284023668639</v>
+        <v>32.7272727272727</v>
       </c>
       <c r="G92" t="n">
-        <v>19.5</v>
+        <v>40.2</v>
       </c>
       <c r="H92" t="s">
         <v>285</v>
       </c>
       <c r="I92" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
@@ -4206,25 +4190,25 @@
         <v>287</v>
       </c>
       <c r="C93" t="n">
-        <v>4725.0412440518</v>
+        <v>51966.8625777626</v>
       </c>
       <c r="D93" t="n">
-        <v>30547580</v>
+        <v>5124100</v>
       </c>
       <c r="E93" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F93" t="n">
+        <v>40.8333333333333</v>
+      </c>
+      <c r="G93" t="n">
         <v>22</v>
-      </c>
-      <c r="F93" t="n">
-        <v>32.7272727272727</v>
-      </c>
-      <c r="G93" t="n">
-        <v>40.2</v>
       </c>
       <c r="H93" t="s">
         <v>288</v>
       </c>
       <c r="I93" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94">
@@ -4235,25 +4219,25 @@
         <v>290</v>
       </c>
       <c r="C94" t="n">
-        <v>51966.8625777626</v>
+        <v>6437.16266275667</v>
       </c>
       <c r="D94" t="n">
-        <v>5124100</v>
+        <v>235824862</v>
       </c>
       <c r="E94" t="n">
-        <v>2.9</v>
+        <v>51</v>
       </c>
       <c r="F94" t="n">
-        <v>40.8333333333333</v>
+        <v>20.2346041055718</v>
       </c>
       <c r="G94" t="n">
-        <v>22</v>
+        <v>53.1</v>
       </c>
       <c r="H94" t="s">
         <v>291</v>
       </c>
       <c r="I94" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
@@ -4264,25 +4248,25 @@
         <v>293</v>
       </c>
       <c r="C95" t="n">
-        <v>6437.16266275667</v>
+        <v>39279.6753765989</v>
       </c>
       <c r="D95" t="n">
-        <v>235824862</v>
+        <v>4408581</v>
       </c>
       <c r="E95" t="n">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>20.2346041055718</v>
+        <v>21.1267605633803</v>
       </c>
       <c r="G95" t="n">
-        <v>53.1</v>
+        <v>17.8</v>
       </c>
       <c r="H95" t="s">
         <v>294</v>
       </c>
       <c r="I95" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
@@ -4293,19 +4277,19 @@
         <v>296</v>
       </c>
       <c r="C96" t="n">
-        <v>39279.6753765989</v>
+        <v>15047.5183272037</v>
       </c>
       <c r="D96" t="n">
-        <v>4408581</v>
+        <v>34049588</v>
       </c>
       <c r="E96" t="n">
-        <v>9</v>
+        <v>11.4</v>
       </c>
       <c r="F96" t="n">
-        <v>21.1267605633803</v>
+        <v>30</v>
       </c>
       <c r="G96" t="n">
-        <v>17.8</v>
+        <v>12.9</v>
       </c>
       <c r="H96" t="s">
         <v>297</v>
@@ -4322,25 +4306,25 @@
         <v>299</v>
       </c>
       <c r="C97" t="n">
-        <v>15047.5183272037</v>
+        <v>10133.1958943127</v>
       </c>
       <c r="D97" t="n">
-        <v>34049588</v>
+        <v>115559009</v>
       </c>
       <c r="E97" t="n">
-        <v>11.4</v>
+        <v>53.6</v>
       </c>
       <c r="F97" t="n">
-        <v>30</v>
+        <v>27.9605263157895</v>
       </c>
       <c r="G97" t="n">
-        <v>12.9</v>
+        <v>45.1</v>
       </c>
       <c r="H97" t="s">
         <v>300</v>
       </c>
       <c r="I97" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
@@ -4351,25 +4335,25 @@
         <v>302</v>
       </c>
       <c r="C98" t="n">
-        <v>10133.1958943127</v>
+        <v>43268.5437126031</v>
       </c>
       <c r="D98" t="n">
-        <v>115559009</v>
+        <v>37561599</v>
       </c>
       <c r="E98" t="n">
-        <v>53.6</v>
+        <v>9.7</v>
       </c>
       <c r="F98" t="n">
-        <v>27.9605263157895</v>
+        <v>28.695652173913</v>
       </c>
       <c r="G98" t="n">
-        <v>45.1</v>
+        <v>12.5</v>
       </c>
       <c r="H98" t="s">
         <v>303</v>
       </c>
       <c r="I98" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
@@ -4380,19 +4364,19 @@
         <v>305</v>
       </c>
       <c r="C99" t="n">
-        <v>43268.5437126031</v>
+        <v>41451.6148656947</v>
       </c>
       <c r="D99" t="n">
-        <v>37561599</v>
+        <v>10379007</v>
       </c>
       <c r="E99" t="n">
-        <v>9.7</v>
+        <v>2.5</v>
       </c>
       <c r="F99" t="n">
-        <v>28.695652173913</v>
+        <v>38.695652173913</v>
       </c>
       <c r="G99" t="n">
-        <v>12.5</v>
+        <v>11.4</v>
       </c>
       <c r="H99" t="s">
         <v>306</v>
@@ -4409,25 +4393,25 @@
         <v>308</v>
       </c>
       <c r="C100" t="n">
-        <v>41451.6148656947</v>
+        <v>15977.3116536226</v>
       </c>
       <c r="D100" t="n">
-        <v>10379007</v>
+        <v>6780744</v>
       </c>
       <c r="E100" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>38.695652173913</v>
+        <v>15</v>
       </c>
       <c r="G100" t="n">
-        <v>11.4</v>
+        <v>29.8</v>
       </c>
       <c r="H100" t="s">
         <v>309</v>
       </c>
       <c r="I100" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
@@ -4438,25 +4422,25 @@
         <v>311</v>
       </c>
       <c r="C101" t="n">
-        <v>15977.3116536226</v>
+        <v>41887.9219020734</v>
       </c>
       <c r="D101" t="n">
-        <v>6780744</v>
+        <v>18956666</v>
       </c>
       <c r="E101" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="F101" t="n">
-        <v>15</v>
+        <v>21.8844984802432</v>
       </c>
       <c r="G101" t="n">
-        <v>29.8</v>
+        <v>22.1</v>
       </c>
       <c r="H101" t="s">
         <v>312</v>
       </c>
       <c r="I101" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102">
@@ -4467,23 +4451,25 @@
         <v>314</v>
       </c>
       <c r="C102" t="n">
-        <v>6756.78328459017</v>
+        <v>2792.42162516676</v>
       </c>
       <c r="D102" t="n">
-        <v>5043612</v>
+        <v>13776698</v>
       </c>
       <c r="E102" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F102"/>
+        <v>45</v>
+      </c>
+      <c r="F102" t="n">
+        <v>61.25</v>
+      </c>
       <c r="G102" t="n">
-        <v>59.4</v>
+        <v>23.5</v>
       </c>
       <c r="H102" t="s">
         <v>315</v>
       </c>
       <c r="I102" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103">
@@ -4494,25 +4480,25 @@
         <v>317</v>
       </c>
       <c r="C103" t="n">
-        <v>41887.9219020734</v>
+        <v>4208.96497879788</v>
       </c>
       <c r="D103" t="n">
-        <v>18956666</v>
+        <v>17316449</v>
       </c>
       <c r="E103" t="n">
-        <v>8.5</v>
+        <v>42</v>
       </c>
       <c r="F103" t="n">
-        <v>21.8844984802432</v>
+        <v>41.8181818181818</v>
       </c>
       <c r="G103" t="n">
-        <v>22.1</v>
+        <v>3.6</v>
       </c>
       <c r="H103" t="s">
         <v>318</v>
       </c>
       <c r="I103" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104">
@@ -4523,25 +4509,25 @@
         <v>320</v>
       </c>
       <c r="C104" t="n">
-        <v>2792.42162516676</v>
+        <v>127564.556573776</v>
       </c>
       <c r="D104" t="n">
-        <v>13776698</v>
+        <v>5637022</v>
       </c>
       <c r="E104" t="n">
-        <v>45</v>
+        <v>13.8</v>
       </c>
       <c r="F104" t="n">
-        <v>61.25</v>
+        <v>23</v>
       </c>
       <c r="G104" t="n">
-        <v>23.5</v>
+        <v>49.2</v>
       </c>
       <c r="H104" t="s">
         <v>321</v>
       </c>
       <c r="I104" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105">
@@ -4552,19 +4538,19 @@
         <v>323</v>
       </c>
       <c r="C105" t="n">
-        <v>4208.96497879788</v>
+        <v>1931.06733078033</v>
       </c>
       <c r="D105" t="n">
-        <v>17316449</v>
+        <v>8605718</v>
       </c>
       <c r="E105" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F105" t="n">
-        <v>41.8181818181818</v>
+        <v>12.3287671232877</v>
       </c>
       <c r="G105" t="n">
-        <v>3.6</v>
+        <v>40.9</v>
       </c>
       <c r="H105" t="s">
         <v>324</v>
@@ -4581,25 +4567,25 @@
         <v>326</v>
       </c>
       <c r="C106" t="n">
-        <v>127564.556573776</v>
+        <v>11096.2132011865</v>
       </c>
       <c r="D106" t="n">
-        <v>5637022</v>
+        <v>6336392</v>
       </c>
       <c r="E106" t="n">
-        <v>13.8</v>
+        <v>10</v>
       </c>
       <c r="F106" t="n">
-        <v>23</v>
+        <v>30.952380952381</v>
       </c>
       <c r="G106" t="n">
-        <v>49.2</v>
+        <v>17.8</v>
       </c>
       <c r="H106" t="s">
         <v>327</v>
       </c>
       <c r="I106" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107">
@@ -4610,25 +4596,25 @@
         <v>329</v>
       </c>
       <c r="C107" t="n">
-        <v>1931.06733078033</v>
+        <v>23911.2012200009</v>
       </c>
       <c r="D107" t="n">
-        <v>8605718</v>
+        <v>6760087</v>
       </c>
       <c r="E107" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="F107" t="n">
-        <v>12.3287671232877</v>
+        <v>37.6518218623482</v>
       </c>
       <c r="G107" t="n">
-        <v>40.9</v>
+        <v>18</v>
       </c>
       <c r="H107" t="s">
         <v>330</v>
       </c>
       <c r="I107" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108">
@@ -4639,25 +4625,25 @@
         <v>332</v>
       </c>
       <c r="C108" t="n">
-        <v>11096.2132011865</v>
+        <v>37459.4738440688</v>
       </c>
       <c r="D108" t="n">
-        <v>6336392</v>
+        <v>5431752</v>
       </c>
       <c r="E108" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="F108" t="n">
-        <v>30.952380952381</v>
+        <v>20</v>
       </c>
       <c r="G108" t="n">
-        <v>17.8</v>
+        <v>24.4</v>
       </c>
       <c r="H108" t="s">
         <v>333</v>
       </c>
       <c r="I108" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109">
@@ -4668,19 +4654,19 @@
         <v>335</v>
       </c>
       <c r="C109" t="n">
-        <v>23911.2012200009</v>
+        <v>50031.6561840507</v>
       </c>
       <c r="D109" t="n">
-        <v>6760087</v>
+        <v>2108732</v>
       </c>
       <c r="E109" t="n">
-        <v>2</v>
+        <v>17.1</v>
       </c>
       <c r="F109" t="n">
-        <v>37.6518218623482</v>
+        <v>27.7777777777778</v>
       </c>
       <c r="G109" t="n">
-        <v>18</v>
+        <v>13.2</v>
       </c>
       <c r="H109" t="s">
         <v>336</v>
@@ -4697,19 +4683,19 @@
         <v>338</v>
       </c>
       <c r="C110" t="n">
-        <v>37459.4738440688</v>
+        <v>64578.3963325427</v>
       </c>
       <c r="D110" t="n">
-        <v>5431752</v>
+        <v>10486941</v>
       </c>
       <c r="E110" t="n">
-        <v>5.5</v>
+        <v>13.1</v>
       </c>
       <c r="F110" t="n">
-        <v>20</v>
+        <v>47.2779369627507</v>
       </c>
       <c r="G110" t="n">
-        <v>24.4</v>
+        <v>16.2</v>
       </c>
       <c r="H110" t="s">
         <v>339</v>
@@ -4726,25 +4712,25 @@
         <v>341</v>
       </c>
       <c r="C111" t="n">
-        <v>50031.6561840507</v>
+        <v>1668.02296131439</v>
       </c>
       <c r="D111" t="n">
-        <v>2108732</v>
+        <v>17723315</v>
       </c>
       <c r="E111" t="n">
-        <v>17.1</v>
+        <v>74</v>
       </c>
       <c r="F111" t="n">
-        <v>27.7777777777778</v>
+        <v>14.8809523809524</v>
       </c>
       <c r="G111" t="n">
-        <v>13.2</v>
+        <v>27.2</v>
       </c>
       <c r="H111" t="s">
         <v>342</v>
       </c>
       <c r="I111" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112">
@@ -4755,25 +4741,25 @@
         <v>344</v>
       </c>
       <c r="C112" t="n">
-        <v>64578.3963325427</v>
+        <v>2607.92768076896</v>
       </c>
       <c r="D112" t="n">
-        <v>10486941</v>
+        <v>8848699</v>
       </c>
       <c r="E112" t="n">
-        <v>13.1</v>
+        <v>25</v>
       </c>
       <c r="F112" t="n">
-        <v>47.2779369627507</v>
+        <v>16.4835164835165</v>
       </c>
       <c r="G112" t="n">
-        <v>16.2</v>
+        <v>62</v>
       </c>
       <c r="H112" t="s">
         <v>345</v>
       </c>
       <c r="I112" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113">
@@ -4784,25 +4770,25 @@
         <v>347</v>
       </c>
       <c r="C113" t="n">
-        <v>1668.02296131439</v>
+        <v>20671.6849201656</v>
       </c>
       <c r="D113" t="n">
-        <v>17723315</v>
+        <v>71697030</v>
       </c>
       <c r="E113" t="n">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="F113" t="n">
-        <v>14.8809523809524</v>
+        <v>16.2</v>
       </c>
       <c r="G113" t="n">
-        <v>27.2</v>
+        <v>56.8</v>
       </c>
       <c r="H113" t="s">
         <v>348</v>
       </c>
       <c r="I113" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114">
@@ -4813,25 +4799,25 @@
         <v>350</v>
       </c>
       <c r="C114" t="n">
-        <v>2607.92768076896</v>
+        <v>4885.12570059687</v>
       </c>
       <c r="D114" t="n">
-        <v>8848699</v>
+        <v>9952787</v>
       </c>
       <c r="E114" t="n">
-        <v>25</v>
+        <v>75.1</v>
       </c>
       <c r="F114" t="n">
-        <v>16.4835164835165</v>
+        <v>19.047619047619</v>
       </c>
       <c r="G114" t="n">
-        <v>62</v>
+        <v>25.1</v>
       </c>
       <c r="H114" t="s">
         <v>351</v>
       </c>
       <c r="I114" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
@@ -4842,25 +4828,25 @@
         <v>353</v>
       </c>
       <c r="C115" t="n">
-        <v>20671.6849201656</v>
+        <v>27778.1806029423</v>
       </c>
       <c r="D115" t="n">
-        <v>71697030</v>
+        <v>1531044</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
       </c>
       <c r="F115" t="n">
-        <v>16.2</v>
+        <v>30.952380952381</v>
       </c>
       <c r="G115" t="n">
-        <v>56.8</v>
+        <v>28.5</v>
       </c>
       <c r="H115" t="s">
         <v>354</v>
       </c>
       <c r="I115" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116">
@@ -4871,25 +4857,25 @@
         <v>356</v>
       </c>
       <c r="C116" t="n">
-        <v>4885.12570059687</v>
+        <v>12489.7180681742</v>
       </c>
       <c r="D116" t="n">
-        <v>9952787</v>
+        <v>12356117</v>
       </c>
       <c r="E116" t="n">
-        <v>75.1</v>
+        <v>29.4</v>
       </c>
       <c r="F116" t="n">
-        <v>19.047619047619</v>
+        <v>22.5806451612903</v>
       </c>
       <c r="G116" t="n">
-        <v>25.1</v>
+        <v>52.8</v>
       </c>
       <c r="H116" t="s">
         <v>357</v>
       </c>
       <c r="I116" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117">
@@ -4900,25 +4886,25 @@
         <v>359</v>
       </c>
       <c r="C117" t="n">
-        <v>27778.1806029423</v>
+        <v>37273.6997606048</v>
       </c>
       <c r="D117" t="n">
-        <v>1531044</v>
+        <v>85341241</v>
       </c>
       <c r="E117" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F117" t="n">
-        <v>30.952380952381</v>
+        <v>17.4496644295302</v>
       </c>
       <c r="G117" t="n">
-        <v>28.5</v>
+        <v>20</v>
       </c>
       <c r="H117" t="s">
         <v>360</v>
       </c>
       <c r="I117" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118">
@@ -4929,19 +4915,19 @@
         <v>362</v>
       </c>
       <c r="C118" t="n">
-        <v>12489.7180681742</v>
+        <v>3096.88452148438</v>
       </c>
       <c r="D118" t="n">
-        <v>12356117</v>
+        <v>65497748</v>
       </c>
       <c r="E118" t="n">
-        <v>29.4</v>
+        <v>59</v>
       </c>
       <c r="F118" t="n">
-        <v>22.5806451612903</v>
+        <v>36.8956743002545</v>
       </c>
       <c r="G118" t="n">
-        <v>52.8</v>
+        <v>35.2</v>
       </c>
       <c r="H118" t="s">
         <v>363</v>
@@ -4958,25 +4944,25 @@
         <v>365</v>
       </c>
       <c r="C119" t="n">
-        <v>37273.6997606048</v>
+        <v>2693.81528630238</v>
       </c>
       <c r="D119" t="n">
-        <v>85341241</v>
+        <v>47249585</v>
       </c>
       <c r="E119" t="n">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="F119" t="n">
-        <v>17.4496644295302</v>
+        <v>34.8583877995643</v>
       </c>
       <c r="G119" t="n">
-        <v>20</v>
+        <v>26.6</v>
       </c>
       <c r="H119" t="s">
         <v>366</v>
       </c>
       <c r="I119" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120">
@@ -4987,25 +4973,25 @@
         <v>368</v>
       </c>
       <c r="C120" t="n">
-        <v>3096.88452148438</v>
+        <v>12671.2392578125</v>
       </c>
       <c r="D120" t="n">
-        <v>65497748</v>
+        <v>38000000</v>
       </c>
       <c r="E120" t="n">
-        <v>59</v>
+        <v>31.1</v>
       </c>
       <c r="F120" t="n">
-        <v>36.8956743002545</v>
+        <v>20.5188679245283</v>
       </c>
       <c r="G120" t="n">
-        <v>35.2</v>
+        <v>28.7</v>
       </c>
       <c r="H120" t="s">
         <v>369</v>
       </c>
       <c r="I120" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121">
@@ -5016,25 +5002,25 @@
         <v>371</v>
       </c>
       <c r="C121" t="n">
-        <v>2693.81528630238</v>
+        <v>28841.9857002361</v>
       </c>
       <c r="D121" t="n">
-        <v>47249585</v>
+        <v>3422794</v>
       </c>
       <c r="E121" t="n">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="F121" t="n">
-        <v>34.8583877995643</v>
+        <v>19.1919191919192</v>
       </c>
       <c r="G121" t="n">
-        <v>26.6</v>
+        <v>22.8</v>
       </c>
       <c r="H121" t="s">
         <v>372</v>
       </c>
       <c r="I121" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122">
@@ -5045,25 +5031,25 @@
         <v>374</v>
       </c>
       <c r="C122" t="n">
-        <v>12671.2392578125</v>
+        <v>76398.5917422057</v>
       </c>
       <c r="D122" t="n">
-        <v>38000000</v>
+        <v>333287557</v>
       </c>
       <c r="E122" t="n">
-        <v>31.1</v>
+        <v>13.9</v>
       </c>
       <c r="F122" t="n">
-        <v>20.5188679245283</v>
+        <v>23.4338747099768</v>
       </c>
       <c r="G122" t="n">
-        <v>28.7</v>
+        <v>22.9</v>
       </c>
       <c r="H122" t="s">
         <v>375</v>
       </c>
       <c r="I122" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123">
@@ -5074,25 +5060,25 @@
         <v>377</v>
       </c>
       <c r="C123" t="n">
-        <v>28841.9857002361</v>
+        <v>9532.51186508938</v>
       </c>
       <c r="D123" t="n">
-        <v>3422794</v>
+        <v>35648100</v>
       </c>
       <c r="E123" t="n">
-        <v>3</v>
+        <v>39.7</v>
       </c>
       <c r="F123" t="n">
-        <v>19.1919191919192</v>
+        <v>16</v>
       </c>
       <c r="G123" t="n">
-        <v>22.8</v>
+        <v>23.5</v>
       </c>
       <c r="H123" t="s">
         <v>378</v>
       </c>
       <c r="I123" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124">
@@ -5103,25 +5089,25 @@
         <v>380</v>
       </c>
       <c r="C124" t="n">
-        <v>76398.5917422057</v>
+        <v>13456.5514254011</v>
       </c>
       <c r="D124" t="n">
-        <v>333287557</v>
+        <v>98186856</v>
       </c>
       <c r="E124" t="n">
-        <v>13.9</v>
+        <v>56.9</v>
       </c>
       <c r="F124" t="n">
-        <v>23.4338747099768</v>
+        <v>26.7206477732794</v>
       </c>
       <c r="G124" t="n">
-        <v>22.9</v>
+        <v>13.8</v>
       </c>
       <c r="H124" t="s">
         <v>381</v>
       </c>
       <c r="I124" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125">
@@ -5132,25 +5118,25 @@
         <v>383</v>
       </c>
       <c r="C125" t="n">
-        <v>9532.51186508938</v>
+        <v>15904.848362637</v>
       </c>
       <c r="D125" t="n">
-        <v>35648100</v>
+        <v>59893885</v>
       </c>
       <c r="E125" t="n">
-        <v>39.7</v>
+        <v>7</v>
       </c>
       <c r="F125" t="n">
-        <v>16</v>
+        <v>46.3476070528967</v>
       </c>
       <c r="G125" t="n">
-        <v>23.5</v>
+        <v>21</v>
       </c>
       <c r="H125" t="s">
         <v>384</v>
       </c>
       <c r="I125" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126">
@@ -5161,25 +5147,25 @@
         <v>386</v>
       </c>
       <c r="C126" t="n">
-        <v>13456.5514254011</v>
+        <v>3894.31025862346</v>
       </c>
       <c r="D126" t="n">
-        <v>98186856</v>
+        <v>20017675</v>
       </c>
       <c r="E126" t="n">
-        <v>56.9</v>
+        <v>47</v>
       </c>
       <c r="F126" t="n">
-        <v>26.7206477732794</v>
+        <v>17.9640718562874</v>
       </c>
       <c r="G126" t="n">
-        <v>13.8</v>
+        <v>41.8</v>
       </c>
       <c r="H126" t="s">
         <v>387</v>
       </c>
       <c r="I126" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127">
@@ -5190,82 +5176,24 @@
         <v>389</v>
       </c>
       <c r="C127" t="n">
-        <v>15904.848362637</v>
+        <v>2530.64598671745</v>
       </c>
       <c r="D127" t="n">
-        <v>59893885</v>
+        <v>16320537</v>
       </c>
       <c r="E127" t="n">
-        <v>7</v>
+        <v>17.9</v>
       </c>
       <c r="F127" t="n">
-        <v>46.3476070528967</v>
+        <v>31.8518518518519</v>
       </c>
       <c r="G127" t="n">
-        <v>21</v>
+        <v>30.9</v>
       </c>
       <c r="H127" t="s">
         <v>390</v>
       </c>
       <c r="I127" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>391</v>
-      </c>
-      <c r="B128" t="s">
-        <v>392</v>
-      </c>
-      <c r="C128" t="n">
-        <v>3894.31025862346</v>
-      </c>
-      <c r="D128" t="n">
-        <v>20017675</v>
-      </c>
-      <c r="E128" t="n">
-        <v>47</v>
-      </c>
-      <c r="F128" t="n">
-        <v>17.9640718562874</v>
-      </c>
-      <c r="G128" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="H128" t="s">
-        <v>393</v>
-      </c>
-      <c r="I128" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>394</v>
-      </c>
-      <c r="B129" t="s">
-        <v>395</v>
-      </c>
-      <c r="C129" t="n">
-        <v>2530.64598671745</v>
-      </c>
-      <c r="D129" t="n">
-        <v>16320537</v>
-      </c>
-      <c r="E129" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="F129" t="n">
-        <v>31.8518518518519</v>
-      </c>
-      <c r="G129" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="H129" t="s">
-        <v>396</v>
-      </c>
-      <c r="I129" t="s">
         <v>37</v>
       </c>
     </row>
